--- a/olympus/M324.xlsx
+++ b/olympus/M324.xlsx
@@ -245,508 +245,508 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2023-08-18 23:00:00</t>
+          <t>2023-08-18 22:00:00</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.02601073868572712</v>
+        <v>0.005417807027697563</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.016111550852656364</v>
+        <v>0.007319849915802479</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.1294487714767456</v>
+        <v>1.0748611688613892</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.1095006465911865</v>
+        <v>1.0950536727905273</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>2.8661999702453613</v>
+        <v>2.8203001022338867</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>40.4448356628418</v>
+        <v>40.604896545410156</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>-73.81195831298828</v>
+        <v>-74.04411315917969</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1008.330322265625</v>
+        <v>1007.7417602539062</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>1.7000000476837158</v>
+        <v>1.600000023841858</v>
       </c>
       <c r="N3" s="2" t="n">
+        <v>1.600000023841858</v>
+      </c>
+      <c r="O3" s="2" t="n">
         <v>1.8000000715255737</v>
       </c>
-      <c r="O3" s="2" t="n">
-        <v>1.600000023841858</v>
-      </c>
       <c r="P3" s="2" t="n">
-        <v>1.7000000476837158</v>
+        <v>1.399999976158142</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>11.249849319458008</v>
+        <v>11.966399192810059</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>28.772756576538086</v>
+        <v>30.211320877075195</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>2023-08-19 01:00:00</t>
+          <t>2023-08-18 23:00:00</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.06719660013914108</v>
+        <v>0.02601073868572712</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.033694952726364136</v>
+        <v>0.016111550852656364</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2.7484190464019775</v>
+        <v>0.0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2.6241421699523926</v>
+        <v>1.1294487714767456</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.595409393310547</v>
+        <v>1.1095006465911865</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>4.416600227355957</v>
+        <v>2.8661999702453613</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>40.36396408081055</v>
+        <v>40.4448356628418</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>-72.93260192871094</v>
+        <v>-73.81195831298828</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1009.6962280273438</v>
+        <v>1008.330322265625</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>11.800000190734863</v>
+        <v>1.7000000476837158</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>12.0</v>
+        <v>1.8000000715255737</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>7.900000095367432</v>
+        <v>1.600000023841858</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>8.40000057220459</v>
+        <v>1.7000000476837158</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>23.300800323486328</v>
+        <v>11.249849319458008</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>27.011335372924805</v>
+        <v>28.772756576538086</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>2023-08-19 03:00:00</t>
+          <t>2023-08-19 00:00:00</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.1083824634552002</v>
+        <v>0.046603668481111526</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.05127835273742676</v>
+        <v>0.024903250858187675</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2.7660775184631348</v>
+        <v>2.1731414794921875</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2.6333680152893066</v>
+        <v>2.0496866703033447</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.6237900257110596</v>
+        <v>2.0458920001983643</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>4.6257004737854</v>
+        <v>4.350300312042236</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>40.387813568115234</v>
+        <v>40.391380310058594</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>-71.92253875732422</v>
+        <v>-73.42306518554688</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1011.0621337890625</v>
+        <v>1009.0132446289062</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>11.90000057220459</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>12.300000190734863</v>
+        <v>8.5</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>23.449825286865234</v>
+        <v>20.799999237060547</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>27.0250186920166</v>
+        <v>27.138668060302734</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>2023-08-19 05:00:00</t>
+          <t>2023-08-19 01:00:00</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.1495683342218399</v>
+        <v>0.06719660013914108</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.06886175274848938</v>
+        <v>0.033694952726364136</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2.773627519607544</v>
+        <v>2.7484190464019775</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>2.635970115661621</v>
+        <v>2.6241421699523926</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.6251425743103027</v>
+        <v>2.595409393310547</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>4.329899787902832</v>
+        <v>4.416600227355957</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>40.406410217285156</v>
+        <v>40.36396408081055</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>-70.91837310791016</v>
+        <v>-72.93260192871094</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1011.8136596679688</v>
+        <v>1009.6962280273438</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>11.699999809265137</v>
+        <v>11.800000190734863</v>
       </c>
       <c r="N6" s="2" t="n">
         <v>12.0</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.40000057220459</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>23.402000427246094</v>
+        <v>23.300800323486328</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>27.584726333618164</v>
+        <v>27.011335372924805</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>2023-08-19 07:00:00</t>
+          <t>2023-08-19 02:00:00</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.19075419008731842</v>
+        <v>0.08778953552246094</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.086445152759552</v>
+        <v>0.04248665273189545</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>2.7718420028686523</v>
+        <v>2.7847139835357666</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>2.6155130863189697</v>
+        <v>2.6477291584014893</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.6103479862213135</v>
+        <v>2.635983467102051</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>4.431900501251221</v>
+        <v>4.411500453948975</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>40.424781799316406</v>
+        <v>40.37806701660156</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>-69.91939544677734</v>
+        <v>-72.42770385742188</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1012.3632202148438</v>
+        <v>1010.3792114257812</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>12.100000381469727</v>
+        <v>11.800000190734863</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>12.100000381469727</v>
+        <v>12.0</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="P7" s="2" t="n">
         <v>9.100000381469727</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>23.599565505981445</v>
+        <v>23.899398803710938</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>25.662931442260742</v>
+        <v>26.826507568359375</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>2023-08-19 09:00:00</t>
+          <t>2023-08-19 03:00:00</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.039847858250141144</v>
+        <v>0.1083824634552002</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.10402855277061462</v>
+        <v>0.05127835273742676</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>2.784693956375122</v>
+        <v>2.7660775184631348</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>2.6432602405548096</v>
+        <v>2.6333680152893066</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.6217586994171143</v>
+        <v>2.6237900257110596</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>4.58489990234375</v>
+        <v>4.6257004737854</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>40.51940155029297</v>
+        <v>40.387813568115234</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>-68.9556884765625</v>
+        <v>-71.92253875732422</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1012.9127807617188</v>
+        <v>1011.0621337890625</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>12.100000381469727</v>
+        <v>11.90000057220459</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>12.100000381469727</v>
+        <v>12.300000190734863</v>
       </c>
       <c r="O8" s="2" t="n">
         <v>8.800000190734863</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>23.399999618530273</v>
+        <v>23.449825286865234</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>24.79669189453125</v>
+        <v>27.0250186920166</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>2023-08-19 11:00:00</t>
+          <t>2023-08-19 04:00:00</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.10880060493946075</v>
+        <v>0.12897539138793945</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.12161196023225784</v>
+        <v>0.06007005274295807</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>2.7583045959472656</v>
+        <v>2.762575149536133</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>2.600140333175659</v>
+        <v>2.6163787841796875</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.595074415206909</v>
+        <v>2.6197011470794678</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>4.564500331878662</v>
+        <v>4.426800727844238</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>40.844722747802734</v>
+        <v>40.39702606201172</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>-68.08316802978516</v>
+        <v>-71.41936492919922</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1013.46240234375</v>
+        <v>1011.5388793945312</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>12.100000381469727</v>
+        <v>11.699999809265137</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>12.100000381469727</v>
+        <v>12.199999809265137</v>
       </c>
       <c r="O9" s="2" t="n">
         <v>8.800000190734863</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>23.20060157775879</v>
+        <v>23.550151824951172</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>22.840803146362305</v>
+        <v>27.441492080688477</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>2023-08-19 13:00:00</t>
+          <t>2023-08-19 05:00:00</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.17775335907936096</v>
+        <v>0.1495683342218399</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.13919535279273987</v>
+        <v>0.06886175274848938</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>2.5904088020324707</v>
+        <v>2.773627519607544</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>2.6224052906036377</v>
+        <v>2.635970115661621</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.6059253215789795</v>
+        <v>2.6251425743103027</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>4.906200408935547</v>
+        <v>4.329899787902832</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>41.13610076904297</v>
+        <v>40.406410217285156</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>-67.19957733154297</v>
+        <v>-70.91837310791016</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1014.011962890625</v>
+        <v>1011.8136596679688</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>12.100000381469727</v>
+        <v>11.699999809265137</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>12.100000381469727</v>
+        <v>12.0</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="P10" s="2" t="n">
         <v>9.100000381469727</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>23.150075912475586</v>
+        <v>23.402000427246094</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>23.899999618530273</v>
+        <v>27.584726333618164</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>2023-08-19 15:00:00</t>
+          <t>2023-08-19 06:00:00</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.038381025195121765</v>
+        <v>0.17016126215457916</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.1567787528038025</v>
+        <v>0.07765345275402069</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>2.753762722015381</v>
+        <v>2.763136625289917</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>2.6479127407073975</v>
+        <v>2.6361236572265625</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.669048547744751</v>
+        <v>2.6197707653045654</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>4.768499851226807</v>
+        <v>4.579800128936768</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>41.41381072998047</v>
+        <v>40.415809631347656</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>-66.29377746582031</v>
+        <v>-70.4178695678711</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1014.5615234375</v>
+        <v>1012.0884399414062</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>12.100000381469727</v>
+        <v>12.0</v>
       </c>
       <c r="N11" s="2" t="n">
         <v>12.100000381469727</v>
@@ -758,50 +758,50 @@
         <v>9.100000381469727</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>24.399999618530273</v>
+        <v>23.600252151489258</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>24.506811141967773</v>
+        <v>27.482332229614258</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>2023-08-19 17:00:00</t>
+          <t>2023-08-19 07:00:00</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.10672273486852646</v>
+        <v>0.19075419008731842</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.1743621677160263</v>
+        <v>0.086445152759552</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>2.7661595344543457</v>
+        <v>2.7718420028686523</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>2.6505277156829834</v>
+        <v>2.6155130863189697</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.665498733520508</v>
+        <v>2.6103479862213135</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>4.778700351715088</v>
+        <v>4.431900501251221</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>41.708229064941406</v>
+        <v>40.424781799316406</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>-65.37776947021484</v>
+        <v>-69.91939544677734</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1015.1111450195312</v>
+        <v>1012.3632202148438</v>
       </c>
       <c r="M12" s="2" t="n">
         <v>12.100000381469727</v>
@@ -816,53 +816,53 @@
         <v>9.100000381469727</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>22.70060157775879</v>
+        <v>23.599565505981445</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>24.477262496948242</v>
+        <v>25.662931442260742</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>2023-08-19 19:00:00</t>
+          <t>2023-08-19 08:00:00</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.17506444454193115</v>
+        <v>0.005371485836803913</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.19194556772708893</v>
+        <v>0.09523685276508331</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>2.7542784214019775</v>
+        <v>2.752216339111328</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>2.638101577758789</v>
+        <v>2.601130723953247</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.6694376468658447</v>
+        <v>2.590646743774414</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>4.732800483703613</v>
+        <v>4.4982008934021</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>41.98873519897461</v>
+        <v>40.43422317504883</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>-64.43726348876953</v>
+        <v>-69.42304229736328</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1015.6607055664062</v>
+        <v>1012.6380004882812</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>12.100000381469727</v>
+        <v>12.0</v>
       </c>
       <c r="N13" s="2" t="n">
         <v>12.100000381469727</v>
@@ -874,53 +874,53 @@
         <v>9.100000381469727</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>23.249975204467773</v>
+        <v>23.30080795288086</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>24.988317489624023</v>
+        <v>25.896926879882812</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>2023-08-19 21:00:00</t>
+          <t>2023-08-19 09:00:00</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.03427394479513168</v>
+        <v>0.039847858250141144</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.20952896773815155</v>
+        <v>0.10402855277061462</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>2.7648847103118896</v>
+        <v>2.784693956375122</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>2.647906541824341</v>
+        <v>2.6432602405548096</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.671840190887451</v>
+        <v>2.6217586994171143</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>4.788900375366211</v>
+        <v>4.58489990234375</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>42.271541595458984</v>
+        <v>40.51940155029297</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>-63.450138092041016</v>
+        <v>-68.9556884765625</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1016.2102661132812</v>
+        <v>1012.9127807617188</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>12.0</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="N14" s="2" t="n">
         <v>12.100000381469727</v>
@@ -932,50 +932,50 @@
         <v>9.100000381469727</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>23.0</v>
+        <v>23.399999618530273</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>25.625242233276367</v>
+        <v>24.79669189453125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>2023-08-19 23:00:00</t>
+          <t>2023-08-19 10:00:00</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.10915695875883102</v>
+        <v>0.07432423532009125</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.22711236774921417</v>
+        <v>0.11282026022672653</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>2.7608015537261963</v>
+        <v>2.7772486209869385</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>2.6520681381225586</v>
+        <v>2.634082794189453</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.653766632080078</v>
+        <v>2.614942789077759</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>4.84499979019165</v>
+        <v>4.5084004402160645</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>42.54751968383789</v>
+        <v>40.684993743896484</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>-62.44999313354492</v>
+        <v>-68.51705932617188</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1016.7598266601562</v>
+        <v>1013.1876220703125</v>
       </c>
       <c r="M15" s="2" t="n">
         <v>12.100000381469727</v>
@@ -990,50 +990,50 @@
         <v>9.100000381469727</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>22.200225830078125</v>
+        <v>23.00029945373535</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>25.144229888916016</v>
+        <v>24.483888626098633</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>2023-08-20 01:00:00</t>
+          <t>2023-08-19 11:00:00</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.18403996527194977</v>
+        <v>0.10880060493946075</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.2446957677602768</v>
+        <v>0.12161196023225784</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>2.7442564964294434</v>
+        <v>2.7583045959472656</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>2.6319198608398438</v>
+        <v>2.600140333175659</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.641458511352539</v>
+        <v>2.595074415206909</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>4.804200649261475</v>
+        <v>4.564500331878662</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>42.81419372558594</v>
+        <v>40.844722747802734</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>-61.44297790527344</v>
+        <v>-68.08316802978516</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1017.3094482421875</v>
+        <v>1013.46240234375</v>
       </c>
       <c r="M16" s="2" t="n">
         <v>12.100000381469727</v>
@@ -1048,50 +1048,50 @@
         <v>9.100000381469727</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>23.214277267456055</v>
+        <v>23.20060157775879</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>24.624595642089844</v>
+        <v>22.840803146362305</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>2023-08-20 03:00:00</t>
+          <t>2023-08-19 12:00:00</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.03078206069767475</v>
+        <v>0.14327697455883026</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0.2622791528701782</v>
+        <v>0.13040365278720856</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>2.756781578063965</v>
+        <v>2.5968008041381836</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>2.646505355834961</v>
+        <v>2.625495433807373</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.649796962738037</v>
+        <v>2.6228315830230713</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>4.702200412750244</v>
+        <v>4.911300182342529</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>43.06962966918945</v>
+        <v>40.99101257324219</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>-60.43449783325195</v>
+        <v>-67.64295959472656</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1017.0474853515625</v>
+        <v>1013.7371826171875</v>
       </c>
       <c r="M17" s="2" t="n">
         <v>12.100000381469727</v>
@@ -1106,53 +1106,53 @@
         <v>9.100000381469727</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>23.249696731567383</v>
+        <v>23.100801467895508</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>25.19159698486328</v>
+        <v>24.280160903930664</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>2023-08-20 05:00:00</t>
+          <t>2023-08-19 13:00:00</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.07738685607910156</v>
+        <v>0.17775335907936096</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0.018490556627511978</v>
+        <v>0.13919535279273987</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>2.762047290802002</v>
+        <v>2.5904088020324707</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>2.6367833614349365</v>
+        <v>2.6224052906036377</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2.6480977535247803</v>
+        <v>2.6059253215789795</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>4.646100044250488</v>
+        <v>4.906200408935547</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>43.3192138671875</v>
+        <v>41.13610076904297</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>-59.40708923339844</v>
+        <v>-67.19957733154297</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1017.2343139648438</v>
+        <v>1014.011962890625</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>12.0</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="N18" s="2" t="n">
         <v>12.100000381469727</v>
@@ -1164,53 +1164,53 @@
         <v>9.100000381469727</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>23.798795700073242</v>
+        <v>23.150075912475586</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>24.869415283203125</v>
+        <v>23.899999618530273</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>2023-08-20 07:00:00</t>
+          <t>2023-08-19 14:00:00</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.12399166077375412</v>
+        <v>0.004210170358419418</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0.04816281422972679</v>
+        <v>0.14798705279827118</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>2.7578015327453613</v>
+        <v>2.5593223571777344</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>2.6422202587127686</v>
+        <v>2.5866360664367676</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2.649484157562256</v>
+        <v>2.592935562133789</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>4.610400199890137</v>
+        <v>4.896000385284424</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>43.570369720458984</v>
+        <v>41.27771759033203</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>-58.38704299926758</v>
+        <v>-66.7505874633789</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1016.6363525390625</v>
+        <v>1014.2867431640625</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>12.100000381469727</v>
+        <v>12.0</v>
       </c>
       <c r="N19" s="2" t="n">
         <v>12.100000381469727</v>
@@ -1222,1888 +1222,1888 @@
         <v>9.100000381469727</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>23.10037612915039</v>
+        <v>23.524906158447266</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>24.28651237487793</v>
+        <v>24.33067512512207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>2023-08-20 09:00:00</t>
+          <t>2023-08-19 15:00:00</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.17059645056724548</v>
+        <v>0.038381025195121765</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0.0778350755572319</v>
+        <v>0.1567787528038025</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>2.7818522453308105</v>
+        <v>2.753762722015381</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>2.6228137016296387</v>
+        <v>2.6479127407073975</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>0.0</v>
+        <v>2.669048547744751</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>4.064700126647949</v>
+        <v>4.768499851226807</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>43.88331604003906</v>
+        <v>41.41381072998047</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>-57.417823791503906</v>
+        <v>-66.29377746582031</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1016.6221923828125</v>
+        <v>1014.5615234375</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>7.599999904632568</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>7.0</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>6.5</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>19.700607299804688</v>
+        <v>24.399999618530273</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>23.872838973999023</v>
+        <v>24.506811141967773</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>2023-08-20 11:00:00</t>
+          <t>2023-08-19 16:00:00</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.010196791961789131</v>
+        <v>0.07255187630653381</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.10750733315944672</v>
+        <v>0.1655704528093338</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>2.7991089820861816</v>
+        <v>2.7417778968811035</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>2.6585934162139893</v>
+        <v>2.64214825630188</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6504039764404297</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>4.880700588226318</v>
+        <v>4.7123894691467285</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>44.161434173583984</v>
+        <v>41.56785583496094</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>-56.52478790283203</v>
+        <v>-65.83361053466797</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1017.0764770507812</v>
+        <v>1014.8363037109375</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>7.5</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>7.900000095367432</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>7.599999904632568</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>7.599999904632568</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>21.33302116394043</v>
+        <v>23.200000762939453</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>25.13926124572754</v>
+        <v>26.686262130737305</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>2023-08-20 13:00:00</t>
+          <t>2023-08-19 17:00:00</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.05659141391515732</v>
+        <v>0.10672273486852646</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0.13717958331108093</v>
+        <v>0.1743621677160263</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>2.7792394161224365</v>
+        <v>2.7661595344543457</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>2.627561569213867</v>
+        <v>2.6505277156829834</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0.0</v>
+        <v>2.665498733520508</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>4.885800361633301</v>
+        <v>4.778700351715088</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>44.43407440185547</v>
+        <v>41.708229064941406</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>-55.61866760253906</v>
+        <v>-65.37776947021484</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1017.53076171875</v>
+        <v>1015.1111450195312</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>7.5</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>7.900000095367432</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>7.599999904632568</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>7.599999904632568</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>21.300098419189453</v>
+        <v>22.70060157775879</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>25.332698822021484</v>
+        <v>24.477262496948242</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>2023-08-20 15:00:00</t>
+          <t>2023-08-19 18:00:00</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.10298603773117065</v>
+        <v>0.1408935785293579</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0.16685184836387634</v>
+        <v>0.18315386772155762</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>2.809525728225708</v>
+        <v>2.747641086578369</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>2.656446695327759</v>
+        <v>2.6515285968780518</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>0.0</v>
+        <v>2.659792900085449</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>4.931700229644775</v>
+        <v>4.743000030517578</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>44.70447540283203</v>
+        <v>41.84788513183594</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>-54.68702697753906</v>
+        <v>-64.913818359375</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1017.9849853515625</v>
+        <v>1015.3859252929688</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>7.700000286102295</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>7.900000095367432</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>7.599999904632568</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>7.599999904632568</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>20.500125885009766</v>
+        <v>23.248870849609375</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>26.308330535888672</v>
+        <v>25.283931732177734</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>2023-08-20 17:00:00</t>
+          <t>2023-08-19 19:00:00</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.1493806540966034</v>
+        <v>0.17506444454193115</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0.19652411341667175</v>
+        <v>0.19194556772708893</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>2.822410821914673</v>
+        <v>2.7542784214019775</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>2.6636083126068115</v>
+        <v>2.638101577758789</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6694376468658447</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>4.906200408935547</v>
+        <v>4.732800483703613</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>44.967227935791016</v>
+        <v>41.98873519897461</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>-53.74583435058594</v>
+        <v>-64.43726348876953</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1018.4392700195312</v>
+        <v>1015.6607055664062</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>7.700000286102295</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>7.900000095367432</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>7.599999904632568</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>7.599999904632568</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>22.76702308654785</v>
+        <v>23.249975204467773</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>24.997346878051758</v>
+        <v>24.988317489624023</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>2023-08-20 19:00:00</t>
+          <t>2023-08-19 20:00:00</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.19577528536319733</v>
+        <v>0.728485643863678</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0.22619636356830597</v>
+        <v>0.20073726773262024</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>2.811403512954712</v>
+        <v>2.765866279602051</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>2.661302328109741</v>
+        <v>2.657196044921875</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6809937953948975</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>4.880700588226318</v>
+        <v>4.773599624633789</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>45.21874237060547</v>
+        <v>42.13129806518555</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>-52.80823516845703</v>
+        <v>-63.94340133666992</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1018.8935546875</v>
+        <v>1015.9354858398438</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>7.800000190734863</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>7.900000095367432</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>7.599999904632568</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>7.599999904632568</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>22.56674575805664</v>
+        <v>24.566511154174805</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>23.425704956054688</v>
+        <v>25.804059982299805</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>2023-08-20 21:00:00</t>
+          <t>2023-08-19 21:00:00</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.11955305933952332</v>
+        <v>0.03427394479513168</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0.2558686137199402</v>
+        <v>0.20952896773815155</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>2.8126680850982666</v>
+        <v>2.7648847103118896</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>2.6660289764404297</v>
+        <v>2.647906541824341</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>0.0</v>
+        <v>2.671840190887451</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>4.9521002769470215</v>
+        <v>4.788900375366211</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>45.467960357666016</v>
+        <v>42.271541595458984</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>-51.84272384643555</v>
+        <v>-63.450138092041016</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1019.3477783203125</v>
+        <v>1016.2102661132812</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>7.599999904632568</v>
+        <v>12.0</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>7.900000095367432</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>7.599999904632568</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>7.599999904632568</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>21.500322341918945</v>
+        <v>23.0</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>22.558807373046875</v>
+        <v>25.625242233276367</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>2023-08-20 23:00:00</t>
+          <t>2023-08-19 22:00:00</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.042226504534482956</v>
+        <v>0.07171545177698135</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0.5705332159996033</v>
+        <v>0.21832066774368286</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>2.6683712005615234</v>
+        <v>2.77302622795105</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>2.460623264312744</v>
+        <v>2.662932872772217</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>2.496856212615967</v>
+        <v>2.6758337020874023</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.0</v>
+        <v>4.809300422668457</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>45.983219146728516</v>
+        <v>42.409847259521484</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>-51.648704528808594</v>
+        <v>-62.95520782470703</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1019.7947387695312</v>
+        <v>1016.4850463867188</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>5.800000190734863</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>19.59980010986328</v>
+        <v>23.125032424926758</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>21.81133270263672</v>
+        <v>25.679391860961914</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>2023-08-21 01:00:00</t>
+          <t>2023-08-19 23:00:00</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.1495816856622696</v>
+        <v>0.10915695875883102</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0.5182723999023438</v>
+        <v>0.22711236774921417</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1.2911509275436401</v>
+        <v>2.7608015537261963</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>1.209053635597229</v>
+        <v>2.6520681381225586</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.1133931875228882</v>
+        <v>2.653766632080078</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.0</v>
+        <v>4.84499979019165</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>46.28812026977539</v>
+        <v>42.54751968383789</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>-51.73059844970703</v>
+        <v>-62.44999313354492</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1018.605712890625</v>
+        <v>1016.7598266601562</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>1.2000000476837158</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.3000000715255737</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>1.2000000476837158</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>1.2000000476837158</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>9.857229232788086</v>
+        <v>22.200225830078125</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>22.162059783935547</v>
+        <v>25.144229888916016</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>2023-08-21 03:00:00</t>
+          <t>2023-08-20 00:00:00</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.027181219309568405</v>
+        <v>0.1465984582901001</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0.02551817148923874</v>
+        <v>0.23590406775474548</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>2.7938899993896484</v>
+        <v>2.765500783920288</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>2.6387715339660645</v>
+        <v>2.6510167121887207</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2.6274452209472656</v>
+        <v>2.6514484882354736</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>4.850100040435791</v>
+        <v>4.8348002433776855</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>46.2080078125</v>
+        <v>42.68315505981445</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>-51.101863861083984</v>
+        <v>-61.94273376464844</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1018.2174682617188</v>
+        <v>1017.0346069335938</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>12.40000057220459</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>12.300000190734863</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>9.5</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>9.0</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>24.201501846313477</v>
+        <v>24.99959945678711</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>21.439889907836914</v>
+        <v>25.10056495666504</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>2023-08-21 05:00:00</t>
+          <t>2023-08-20 01:00:00</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0.09170252829790115</v>
+        <v>0.18403996527194977</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>0.08609183132648468</v>
+        <v>0.2446957677602768</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>2.8089661598205566</v>
+        <v>2.7442564964294434</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>2.6639564037323</v>
+        <v>2.6319198608398438</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>2.6384060382843018</v>
+        <v>2.641458511352539</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>4.590000152587891</v>
+        <v>4.804200649261475</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>46.399478912353516</v>
+        <v>42.81419372558594</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>-50.013607025146484</v>
+        <v>-61.44297790527344</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1018.6607666015625</v>
+        <v>1017.3094482421875</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>12.199999809265137</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>12.199999809265137</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>22.99974822998047</v>
+        <v>23.214277267456055</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>20.78706169128418</v>
+        <v>24.624595642089844</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>2023-08-21 07:00:00</t>
+          <t>2023-08-20 02:00:00</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>0.1562238335609436</v>
+        <v>0.007479660678654909</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0.14666548371315002</v>
+        <v>0.2534874677658081</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>2.812934160232544</v>
+        <v>2.7520716190338135</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>2.6700100898742676</v>
+        <v>2.633488416671753</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>2.642542600631714</v>
+        <v>2.647329330444336</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>4.651200294494629</v>
+        <v>4.727700233459473</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>46.756980895996094</v>
+        <v>42.94222640991211</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>-49.003684997558594</v>
+        <v>-60.943458557128906</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1019.1040649414062</v>
+        <v>1017.258544921875</v>
       </c>
       <c r="M31" s="2" t="n">
         <v>12.100000381469727</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>12.199999809265137</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>9.0</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>23.20060157775879</v>
+        <v>23.466598510742188</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>20.267778396606445</v>
+        <v>24.887954711914062</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>2023-08-21 09:00:00</t>
+          <t>2023-08-20 03:00:00</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>0.011387675069272518</v>
+        <v>0.03078206069767475</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>0.20723915100097656</v>
+        <v>0.2622791528701782</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>2.79958176612854</v>
+        <v>2.756781578063965</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>2.6557817459106445</v>
+        <v>2.646505355834961</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2.644397735595703</v>
+        <v>2.649796962738037</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>4.753200531005859</v>
+        <v>4.702200412750244</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>47.04802322387695</v>
+        <v>43.06962966918945</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>-47.946964263916016</v>
+        <v>-60.43449783325195</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1019.54736328125</v>
+        <v>1017.0474853515625</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>12.40000057220459</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>12.199999809265137</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>22.698801040649414</v>
+        <v>23.249696731567383</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>19.631582260131836</v>
+        <v>25.19159698486328</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>2023-08-21 11:00:00</t>
+          <t>2023-08-20 04:00:00</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.06431829929351807</v>
+        <v>0.05408446118235588</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>0.6077346801757812</v>
+        <v>0.0036544266622513533</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>2.600346565246582</v>
+        <v>2.760232448577881</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>2.4573402404785156</v>
+        <v>2.6546874046325684</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>2.474485158920288</v>
+        <v>2.6540756225585938</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.0</v>
+        <v>4.671599864959717</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>47.272403717041016</v>
+        <v>43.19656753540039</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>-47.000953674316406</v>
+        <v>-59.917667388916016</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1019.9906616210938</v>
+        <v>1016.83642578125</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>6.099999904632568</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>20.2000675201416</v>
+        <v>22.840190887451172</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>19.72273063659668</v>
+        <v>25.146638870239258</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>2023-08-21 13:00:00</t>
+          <t>2023-08-20 05:00:00</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0.11724892258644104</v>
+        <v>0.07738685607910156</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>0.4841478765010834</v>
+        <v>0.018490556627511978</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>2.9130616188049316</v>
+        <v>2.762047290802002</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>2.730038642883301</v>
+        <v>2.6367833614349365</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>2.7364773750305176</v>
+        <v>2.6480977535247803</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.0</v>
+        <v>4.646100044250488</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>47.49901580810547</v>
+        <v>43.3192138671875</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>-46.07636642456055</v>
+        <v>-59.40708923339844</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1020.4187622070312</v>
+        <v>1017.2343139648438</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>6.900000095367432</v>
+        <v>12.0</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>7.0</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>6.5</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>6.5</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>20.10124969482422</v>
+        <v>23.798795700073242</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>21.23200225830078</v>
+        <v>24.869415283203125</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>2023-08-21 15:00:00</t>
+          <t>2023-08-20 06:00:00</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>0.170179545879364</v>
+        <v>0.10068926215171814</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>0.4324931502342224</v>
+        <v>0.033326685428619385</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>2.829496145248413</v>
+        <v>2.7504329681396484</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>2.6549570560455322</v>
+        <v>2.637077808380127</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>2.652434825897217</v>
+        <v>2.6468327045440674</v>
       </c>
       <c r="G35" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.0</v>
+        <v>4.610400199890137</v>
       </c>
       <c r="I35" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>47.72449493408203</v>
+        <v>43.44007110595703</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>-45.1171875</v>
+        <v>-58.891380310058594</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1020.6640014648438</v>
+        <v>1017.214599609375</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>6.5</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>21.166397094726562</v>
+        <v>23.5493221282959</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>21.24838638305664</v>
+        <v>24.56528663635254</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>2023-08-21 17:00:00</t>
+          <t>2023-08-20 07:00:00</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>0.09986860305070877</v>
+        <v>0.12399166077375412</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>0.3295339345932007</v>
+        <v>0.04816281422972679</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>2.824841022491455</v>
+        <v>2.7578015327453613</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>2.678722620010376</v>
+        <v>2.6422202587127686</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>2.6808900833129883</v>
+        <v>2.649484157562256</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.0</v>
+        <v>4.610400199890137</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>47.94107437133789</v>
+        <v>43.570369720458984</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>-44.152164459228516</v>
+        <v>-58.38704299926758</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1020.9092407226562</v>
+        <v>1016.6363525390625</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>7.0</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>7.0</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>20.47556495666504</v>
+        <v>23.10037612915039</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>19.95306968688965</v>
+        <v>24.28651237487793</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>2023-08-21 19:00:00</t>
+          <t>2023-08-20 08:00:00</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>0.09621825069189072</v>
+        <v>0.1472940593957901</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>0.027879849076271057</v>
+        <v>0.0629989430308342</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>2.7506651878356934</v>
+        <v>2.7733099460601807</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>2.6173179149627686</v>
+        <v>2.6521146297454834</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2.590606451034546</v>
+        <v>2.6666197776794434</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>2.6979002952575684</v>
+        <v>4.615499973297119</v>
       </c>
       <c r="I37" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>48.15406036376953</v>
+        <v>43.728946685791016</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>-43.15950393676758</v>
+        <v>-57.900333404541016</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1021.1314697265625</v>
+        <v>1016.3950805664062</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>8.199999809265137</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>8.300000190734863</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>7.900000095367432</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>7.700000286102295</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>21.799999237060547</v>
+        <v>22.50119972229004</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>19.501197814941406</v>
+        <v>24.08782196044922</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>2023-08-21 21:00:00</t>
+          <t>2023-08-20 09:00:00</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>0.050203967839479446</v>
+        <v>0.17059645056724548</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>0.07225295156240463</v>
+        <v>0.0778350755572319</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>2.7881946563720703</v>
+        <v>2.7818522453308105</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>2.6623690128326416</v>
+        <v>2.6228137016296387</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>2.633929967880249</v>
+        <v>0.0</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>4.437000274658203</v>
+        <v>4.064700126647949</v>
       </c>
       <c r="I38" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>48.38645935058594</v>
+        <v>43.88331604003906</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>-42.01482009887695</v>
+        <v>-57.417823791503906</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1021.3402099609375</v>
+        <v>1016.6221923828125</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>12.199999809265137</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>11.90000057220459</v>
+        <v>7.0</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>6.5</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>6.700000286102295</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>22.701602935791016</v>
+        <v>19.700607299804688</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>20.28337860107422</v>
+        <v>23.872838973999023</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>2023-08-21 23:00:00</t>
+          <t>2023-08-20 10:00:00</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>0.1884712278842926</v>
+        <v>0.19389885663986206</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>0.1166260614991188</v>
+        <v>0.09267120063304901</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>2.7943224906921387</v>
+        <v>2.795773506164551</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>2.6524157524108887</v>
+        <v>2.649200916290283</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>2.6153316497802734</v>
+        <v>0.0</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>4.5084004402160645</v>
+        <v>4.860300064086914</v>
       </c>
       <c r="I39" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>48.605525970458984</v>
+        <v>44.02279281616211</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>-40.868934631347656</v>
+        <v>-56.97416305541992</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1021.5489501953125</v>
+        <v>1016.8493041992188</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>12.199999809265137</v>
+        <v>8.0</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>12.5</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>8.5</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>8.300000190734863</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>23.224943161010742</v>
+        <v>22.200000762939453</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>21.971540451049805</v>
+        <v>24.475975036621094</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>2023-08-22 01:00:00</t>
+          <t>2023-08-20 11:00:00</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0.12526026368141174</v>
+        <v>0.010196791961789131</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>0.16099916398525238</v>
+        <v>0.10750733315944672</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>2.7949557304382324</v>
+        <v>2.7991089820861816</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>2.661062240600586</v>
+        <v>2.6585934162139893</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>2.626373767852783</v>
+        <v>0.0</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>4.554300308227539</v>
+        <v>4.880700588226318</v>
       </c>
       <c r="I40" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>48.816707611083984</v>
+        <v>44.161434173583984</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>-39.694461822509766</v>
+        <v>-56.52478790283203</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1021.7576904296875</v>
+        <v>1017.0764770507812</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>12.199999809265137</v>
+        <v>7.5</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>12.300000190734863</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>23.69879722595215</v>
+        <v>21.33302116394043</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>20.500890731811523</v>
+        <v>25.13926124572754</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>2023-08-22 03:00:00</t>
+          <t>2023-08-20 12:00:00</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>0.03236107528209686</v>
+        <v>0.03339410200715065</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>0.20537227392196655</v>
+        <v>0.12234345823526382</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>2.7735483646392822</v>
+        <v>2.80631422996521</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>2.6396114826202393</v>
+        <v>2.656038761138916</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>2.6074907779693604</v>
+        <v>0.0</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>4.4982008934021</v>
+        <v>4.9623003005981445</v>
       </c>
       <c r="I41" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>49.01051330566406</v>
+        <v>44.29926681518555</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>-38.54405212402344</v>
+        <v>-56.07099533081055</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1021.9664306640625</v>
+        <v>1017.3035888671875</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>12.40000057220459</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>12.600000381469727</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>9.0</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>23.742881774902344</v>
+        <v>21.466533660888672</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>20.132925033569336</v>
+        <v>24.50041961669922</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>2023-08-22 05:00:00</t>
+          <t>2023-08-20 13:00:00</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>0.10669061541557312</v>
+        <v>0.05659141391515732</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>0.24974536895751953</v>
+        <v>0.13717958331108093</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>2.8012895584106445</v>
+        <v>2.7792394161224365</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>2.679892063140869</v>
+        <v>2.627561569213867</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>2.6312005519866943</v>
+        <v>0.0</v>
       </c>
       <c r="G42" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>4.78380012512207</v>
+        <v>4.885800361633301</v>
       </c>
       <c r="I42" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>49.19141387939453</v>
+        <v>44.43407440185547</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>-37.388919830322266</v>
+        <v>-55.61866760253906</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1022.1751708984375</v>
+        <v>1017.53076171875</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>12.40000057220459</v>
+        <v>7.5</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>12.800000190734863</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>22.950376510620117</v>
+        <v>21.300098419189453</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>18.744674682617188</v>
+        <v>25.332698822021484</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>2023-08-22 07:00:00</t>
+          <t>2023-08-20 14:00:00</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.18102015554904938</v>
+        <v>0.07978872209787369</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>0.16957752406597137</v>
+        <v>0.15201571583747864</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>2.8155574798583984</v>
+        <v>2.7882518768310547</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>2.668661594390869</v>
+        <v>2.6432034969329834</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>2.644972085952759</v>
+        <v>0.0</v>
       </c>
       <c r="G43" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>4.416600227355957</v>
+        <v>4.931700229644775</v>
       </c>
       <c r="I43" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>49.36369705200195</v>
+        <v>44.56937789916992</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>-36.20756149291992</v>
+        <v>-55.15642166137695</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1022.3839111328125</v>
+        <v>1017.7578735351562</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>12.100000381469727</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>11.90000057220459</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>9.0</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>24.33340072631836</v>
+        <v>21.900402069091797</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>18.69305419921875</v>
+        <v>25.83595085144043</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>2023-08-22 09:00:00</t>
+          <t>2023-08-20 15:00:00</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>0.004952607676386833</v>
+        <v>0.10298603773117065</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>0.7749761343002319</v>
+        <v>0.16685184836387634</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>2.843895435333252</v>
+        <v>2.809525728225708</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>2.6961112022399902</v>
+        <v>2.656446695327759</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>2.7195558547973633</v>
+        <v>0.0</v>
       </c>
       <c r="G44" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>0.0</v>
+        <v>4.931700229644775</v>
       </c>
       <c r="I44" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>49.50060272216797</v>
+        <v>44.70447540283203</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>-35.19709396362305</v>
+        <v>-54.68702697753906</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>1022.5926513671875</v>
+        <v>1017.9849853515625</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>7.200000286102295</v>
+        <v>7.700000286102295</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>7.0</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="P44" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>21.27136993408203</v>
+        <v>20.500125885009766</v>
       </c>
       <c r="R44" s="2" t="n">
-        <v>18.46954917907715</v>
+        <v>26.308330535888672</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>2023-08-22 11:00:00</t>
+          <t>2023-08-20 16:00:00</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>0.05565884709358215</v>
+        <v>0.12618334591388702</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>0.6006345152854919</v>
+        <v>0.18168798089027405</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>2.812551736831665</v>
+        <v>2.82426118850708</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>2.645249128341675</v>
+        <v>2.6604700088500977</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>2.6445505619049072</v>
+        <v>0.0</v>
       </c>
       <c r="G45" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>0.0</v>
+        <v>4.931700229644775</v>
       </c>
       <c r="I45" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>49.62578201293945</v>
+        <v>44.83838653564453</v>
       </c>
       <c r="K45" s="2" t="n">
-        <v>-34.22086715698242</v>
+        <v>-54.21167755126953</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>1022.799560546875</v>
+        <v>1018.212158203125</v>
       </c>
       <c r="M45" s="2" t="n">
-        <v>6.900000095367432</v>
+        <v>7.5</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>6.900000095367432</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="P45" s="2" t="n">
-        <v>6.5</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>19.666465759277344</v>
+        <v>21.7002010345459</v>
       </c>
       <c r="R45" s="2" t="n">
-        <v>19.656116485595703</v>
+        <v>26.403852462768555</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>2023-08-22 13:00:00</t>
+          <t>2023-08-20 17:00:00</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.10636508464813232</v>
+        <v>0.1493806540966034</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>0.45412513613700867</v>
+        <v>0.19652411341667175</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>2.8430378437042236</v>
+        <v>2.822410821914673</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>2.6591787338256836</v>
+        <v>2.6636083126068115</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>2.641799211502075</v>
+        <v>0.0</v>
       </c>
       <c r="G46" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>0.0</v>
+        <v>4.906200408935547</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>49.74271774291992</v>
+        <v>44.967227935791016</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>-33.205345153808594</v>
+        <v>-53.74583435058594</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>1022.72314453125</v>
+        <v>1018.4392700195312</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>7.700000286102295</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="P46" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>19.701202392578125</v>
+        <v>22.76702308654785</v>
       </c>
       <c r="R46" s="2" t="n">
-        <v>19.29172706604004</v>
+        <v>24.997346878051758</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>2023-08-22 15:00:00</t>
+          <t>2023-08-20 18:00:00</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>0.1570713222026825</v>
+        <v>0.17257796227931976</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>0.45261460542678833</v>
+        <v>0.21136023104190826</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>2.787973642349243</v>
+        <v>2.8194193840026855</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>2.6336307525634766</v>
+        <v>2.6634390354156494</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>2.609424352645874</v>
+        <v>0.0</v>
       </c>
       <c r="G47" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>0.0</v>
+        <v>4.901099681854248</v>
       </c>
       <c r="I47" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>49.852783203125</v>
+        <v>45.093318939208984</v>
       </c>
       <c r="K47" s="2" t="n">
-        <v>-32.18074035644531</v>
+        <v>-53.28031539916992</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>1022.646728515625</v>
+        <v>1018.6663818359375</v>
       </c>
       <c r="M47" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="O47" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="P47" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="Q47" s="2" t="n">
-        <v>19.700300216674805</v>
+        <v>22.399398803710938</v>
       </c>
       <c r="R47" s="2" t="n">
-        <v>18.91619873046875</v>
+        <v>24.285036087036133</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>2023-08-22 17:00:00</t>
+          <t>2023-08-20 19:00:00</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>5.957878311164677E-4</v>
+        <v>0.19577528536319733</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>0.4740843176841736</v>
+        <v>0.22619636356830597</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>2.791727304458618</v>
+        <v>2.811403512954712</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>2.6405868530273438</v>
+        <v>2.661302328109741</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>2.617354393005371</v>
+        <v>0.0</v>
       </c>
       <c r="G48" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>0.0</v>
+        <v>4.880700588226318</v>
       </c>
       <c r="I48" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>49.95320510864258</v>
+        <v>45.21874237060547</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>-31.161298751831055</v>
+        <v>-52.80823516845703</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>1022.5703125</v>
+        <v>1018.8935546875</v>
       </c>
       <c r="M48" s="2" t="n">
-        <v>6.800000190734863</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>6.800000190734863</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="O48" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="P48" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>18.800199508666992</v>
+        <v>22.56674575805664</v>
       </c>
       <c r="R48" s="2" t="n">
-        <v>18.537845611572266</v>
+        <v>23.425704956054688</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>2023-08-22 19:00:00</t>
+          <t>2023-08-20 20:00:00</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>0.04131774604320526</v>
+        <v>0.04301723837852478</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>0.6341451406478882</v>
+        <v>0.24103249609470367</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>2.7691502571105957</v>
+        <v>2.8108789920806885</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>2.599034309387207</v>
+        <v>2.648453950881958</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>2.5996153354644775</v>
+        <v>0.0</v>
       </c>
       <c r="G49" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>0.0</v>
+        <v>4.911300182342529</v>
       </c>
       <c r="I49" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>50.04435348510742</v>
+        <v>45.34423828125</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>-30.13713836669922</v>
+        <v>-52.32752227783203</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>1022.493896484375</v>
+        <v>1019.1206665039062</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="N49" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="O49" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="P49" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="Q49" s="2" t="n">
-        <v>19.7997989654541</v>
+        <v>22.799999237060547</v>
       </c>
       <c r="R49" s="2" t="n">
-        <v>18.134061813354492</v>
+        <v>23.195199966430664</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>2023-08-22 21:00:00</t>
+          <t>2023-08-20 21:00:00</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>0.07725392282009125</v>
+        <v>0.11955305933952332</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>0.7044590711593628</v>
+        <v>0.2558686137199402</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>2.7317168712615967</v>
+        <v>2.8126680850982666</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>2.556239366531372</v>
+        <v>2.6660289764404297</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>2.5755012035369873</v>
+        <v>0.0</v>
       </c>
       <c r="G50" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>0.0</v>
+        <v>4.9521002769470215</v>
       </c>
       <c r="I50" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>50.12696075439453</v>
+        <v>45.467960357666016</v>
       </c>
       <c r="K50" s="2" t="n">
-        <v>-29.105823516845703</v>
+        <v>-51.84272384643555</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>1022.4174194335938</v>
+        <v>1019.3477783203125</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>6.5</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="N50" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="O50" s="2" t="n">
-        <v>6.099999904632568</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="P50" s="2" t="n">
-        <v>6.099999904632568</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="Q50" s="2" t="n">
-        <v>19.399999618530273</v>
+        <v>21.500322341918945</v>
       </c>
       <c r="R50" s="2" t="n">
-        <v>17.798925399780273</v>
+        <v>22.558807373046875</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>2023-08-22 23:00:00</t>
+          <t>2023-08-20 22:00:00</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>0.02630850486457348</v>
+        <v>0.19608888030052185</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>0.5464373230934143</v>
+        <v>0.2540943920612335</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>2.7328739166259766</v>
+        <v>2.3116629123687744</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>2.5466771125793457</v>
+        <v>2.1611807346343994</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>2.555445909500122</v>
+        <v>2.1879029273986816</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>0.0</v>
+        <v>0.810900092124939</v>
       </c>
       <c r="I51" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>50.19978713989258</v>
+        <v>45.66596603393555</v>
       </c>
       <c r="K51" s="2" t="n">
-        <v>-28.080530166625977</v>
+        <v>-51.567848205566406</v>
       </c>
       <c r="L51" s="2" t="n">
-        <v>1022.3410034179688</v>
+        <v>1019.574951171875</v>
       </c>
       <c r="M51" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>5.200000286102295</v>
       </c>
       <c r="N51" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>4.900000095367432</v>
       </c>
       <c r="O51" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>4.700000286102295</v>
       </c>
       <c r="P51" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>4.700000286102295</v>
       </c>
       <c r="Q51" s="2" t="n">
-        <v>19.766176223754883</v>
+        <v>18.000404357910156</v>
       </c>
       <c r="R51" s="2" t="n">
-        <v>17.600000381469727</v>
+        <v>22.215538024902344</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>2023-08-23 01:00:00</t>
+          <t>2023-08-20 23:00:00</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>0.14754608273506165</v>
+        <v>0.042226504534482956</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>0.48002368211746216</v>
+        <v>0.5705332159996033</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>2.7248153686523438</v>
+        <v>2.6683712005615234</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>2.518754243850708</v>
+        <v>2.460623264312744</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>2.509510040283203</v>
+        <v>2.496856212615967</v>
       </c>
       <c r="G52" s="2" t="n">
         <v>0.0</v>
@@ -3115,53 +3115,53 @@
         <v>0.0</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>50.26342010498047</v>
+        <v>45.983219146728516</v>
       </c>
       <c r="K52" s="2" t="n">
-        <v>-27.048723220825195</v>
+        <v>-51.648704528808594</v>
       </c>
       <c r="L52" s="2" t="n">
-        <v>1022.2645874023438</v>
+        <v>1019.7947387695312</v>
       </c>
       <c r="M52" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>6.200000286102295</v>
       </c>
       <c r="N52" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="O52" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="P52" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="Q52" s="2" t="n">
-        <v>19.30120086669922</v>
+        <v>19.59980010986328</v>
       </c>
       <c r="R52" s="2" t="n">
-        <v>17.621259689331055</v>
+        <v>21.81133270263672</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>2023-08-23 03:00:00</t>
+          <t>2023-08-21 00:00:00</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>0.1652892827987671</v>
+        <v>0.09590408951044083</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>0.6545719504356384</v>
+        <v>0.6167303919792175</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>2.630958318710327</v>
+        <v>2.757305145263672</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>2.472668409347534</v>
+        <v>2.546170711517334</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>2.463118076324463</v>
+        <v>2.5915470123291016</v>
       </c>
       <c r="G53" s="2" t="n">
         <v>0.0</v>
@@ -3173,53 +3173,53 @@
         <v>0.0</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>50.31816482543945</v>
+        <v>46.30809020996094</v>
       </c>
       <c r="K53" s="2" t="n">
-        <v>-26.012142181396484</v>
+        <v>-51.73328399658203</v>
       </c>
       <c r="L53" s="2" t="n">
-        <v>1022.1419677734375</v>
+        <v>1019.2002563476562</v>
       </c>
       <c r="M53" s="2" t="n">
-        <v>6.5</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="N53" s="2" t="n">
-        <v>6.5</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="O53" s="2" t="n">
-        <v>6.0</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="P53" s="2" t="n">
-        <v>6.099999904632568</v>
+        <v>6.200000286102295</v>
       </c>
       <c r="Q53" s="2" t="n">
-        <v>19.600034713745117</v>
+        <v>19.899198532104492</v>
       </c>
       <c r="R53" s="2" t="n">
-        <v>17.417999267578125</v>
+        <v>21.440523147583008</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>2023-08-23 05:00:00</t>
+          <t>2023-08-21 01:00:00</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>0.06816262006759644</v>
+        <v>0.1495816856622696</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>0.615664005279541</v>
+        <v>0.5182723999023438</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>2.6665456295013428</v>
+        <v>1.2911509275436401</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>2.5392329692840576</v>
+        <v>1.209053635597229</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>2.5253496170043945</v>
+        <v>1.1133931875228882</v>
       </c>
       <c r="G54" s="2" t="n">
         <v>0.0</v>
@@ -3231,633 +3231,633 @@
         <v>0.0</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>50.364013671875</v>
+        <v>46.28812026977539</v>
       </c>
       <c r="K54" s="2" t="n">
-        <v>-24.970096588134766</v>
+        <v>-51.73059844970703</v>
       </c>
       <c r="L54" s="2" t="n">
-        <v>1021.768310546875</v>
+        <v>1018.605712890625</v>
       </c>
       <c r="M54" s="2" t="n">
-        <v>6.5</v>
+        <v>1.2000000476837158</v>
       </c>
       <c r="N54" s="2" t="n">
-        <v>6.800000190734863</v>
+        <v>1.3000000715255737</v>
       </c>
       <c r="O54" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>1.2000000476837158</v>
       </c>
       <c r="P54" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>1.2000000476837158</v>
       </c>
       <c r="Q54" s="2" t="n">
-        <v>19.400604248046875</v>
+        <v>9.857229232788086</v>
       </c>
       <c r="R54" s="2" t="n">
-        <v>17.200000762939453</v>
+        <v>22.162059783935547</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>2023-08-23 07:00:00</t>
+          <t>2023-08-21 02:00:00</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>0.15345793962478638</v>
+        <v>0.20325925946235657</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>0.5518386960029602</v>
+        <v>0.30856361985206604</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>2.6327996253967285</v>
+        <v>2.25679612159729</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>2.497271776199341</v>
+        <v>2.1068665981292725</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>2.494884967803955</v>
+        <v>2.096275568008423</v>
       </c>
       <c r="G55" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>0.0</v>
+        <v>1.683000087738037</v>
       </c>
       <c r="I55" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>50.400455474853516</v>
+        <v>46.153709411621094</v>
       </c>
       <c r="K55" s="2" t="n">
-        <v>-23.918851852416992</v>
+        <v>-51.63416290283203</v>
       </c>
       <c r="L55" s="2" t="n">
-        <v>1021.3946533203125</v>
+        <v>1018.01123046875</v>
       </c>
       <c r="M55" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>5.5</v>
       </c>
       <c r="N55" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>5.599999904632568</v>
       </c>
       <c r="O55" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>5.5</v>
       </c>
       <c r="P55" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>5.300000190734863</v>
       </c>
       <c r="Q55" s="2" t="n">
-        <v>19.520000457763672</v>
+        <v>19.499399185180664</v>
       </c>
       <c r="R55" s="2" t="n">
-        <v>17.493228912353516</v>
+        <v>21.299999237060547</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>2023-08-23 09:00:00</t>
+          <t>2023-08-21 03:00:00</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>0.012922617606818676</v>
+        <v>0.027181219309568405</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>0.42896193265914917</v>
+        <v>0.02551817148923874</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>1.9326220750808716</v>
+        <v>2.7938899993896484</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>1.9114729166030884</v>
+        <v>2.6387715339660645</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>1.7474536895751953</v>
+        <v>2.6274452209472656</v>
       </c>
       <c r="G56" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>3.7740001678466797</v>
+        <v>4.850100040435791</v>
       </c>
       <c r="I56" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>50.42723083496094</v>
+        <v>46.2080078125</v>
       </c>
       <c r="K56" s="2" t="n">
-        <v>-22.871370315551758</v>
+        <v>-51.101863861083984</v>
       </c>
       <c r="L56" s="2" t="n">
-        <v>1021.02099609375</v>
+        <v>1018.2174682617188</v>
       </c>
       <c r="M56" s="2" t="n">
-        <v>6.800000190734863</v>
+        <v>12.40000057220459</v>
       </c>
       <c r="N56" s="2" t="n">
-        <v>6.900000095367432</v>
+        <v>12.300000190734863</v>
       </c>
       <c r="O56" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>9.5</v>
       </c>
       <c r="P56" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.0</v>
       </c>
       <c r="Q56" s="2" t="n">
-        <v>19.974641799926758</v>
+        <v>24.201501846313477</v>
       </c>
       <c r="R56" s="2" t="n">
-        <v>18.762195587158203</v>
+        <v>21.439889907836914</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>2023-08-23 11:00:00</t>
+          <t>2023-08-21 04:00:00</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>0.05121666565537453</v>
+        <v>0.05944187566637993</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>0.03017004020512104</v>
+        <v>0.05580500140786171</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>2.8007402420043945</v>
+        <v>2.7644989490509033</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>2.669898509979248</v>
+        <v>2.6181204319000244</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>0.0</v>
+        <v>2.623584747314453</v>
       </c>
       <c r="G57" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>4.885800361633301</v>
+        <v>4.6971001625061035</v>
       </c>
       <c r="I57" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>50.44544219970703</v>
+        <v>46.25517654418945</v>
       </c>
       <c r="K57" s="2" t="n">
-        <v>-21.76243019104004</v>
+        <v>-50.53770446777344</v>
       </c>
       <c r="L57" s="2" t="n">
-        <v>1020.6473999023438</v>
+        <v>1018.4390869140625</v>
       </c>
       <c r="M57" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>12.40000057220459</v>
       </c>
       <c r="N57" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>12.199999809265137</v>
       </c>
       <c r="O57" s="2" t="n">
-        <v>7.599999904632568</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P57" s="2" t="n">
-        <v>7.700000286102295</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="Q57" s="2" t="n">
-        <v>21.299196243286133</v>
+        <v>23.166555404663086</v>
       </c>
       <c r="R57" s="2" t="n">
-        <v>21.50920295715332</v>
+        <v>21.055042266845703</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>2023-08-23 13:00:00</t>
+          <t>2023-08-21 05:00:00</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>0.0895107090473175</v>
+        <v>0.09170252829790115</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>0.06267041712999344</v>
+        <v>0.08609183132648468</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>2.81799054145813</v>
+        <v>2.8089661598205566</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>2.677595376968384</v>
+        <v>2.6639564037323</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6384060382843018</v>
       </c>
       <c r="G58" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>4.753200531005859</v>
+        <v>4.590000152587891</v>
       </c>
       <c r="I58" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>50.45319747924805</v>
+        <v>46.399478912353516</v>
       </c>
       <c r="K58" s="2" t="n">
-        <v>-20.62535858154297</v>
+        <v>-50.013607025146484</v>
       </c>
       <c r="L58" s="2" t="n">
-        <v>1020.2737426757812</v>
+        <v>1018.6607666015625</v>
       </c>
       <c r="M58" s="2" t="n">
-        <v>8.0</v>
+        <v>12.199999809265137</v>
       </c>
       <c r="N58" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>12.199999809265137</v>
       </c>
       <c r="O58" s="2" t="n">
-        <v>7.599999904632568</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P58" s="2" t="n">
-        <v>7.700000286102295</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="Q58" s="2" t="n">
-        <v>20.951129913330078</v>
+        <v>22.99974822998047</v>
       </c>
       <c r="R58" s="2" t="n">
-        <v>20.67318344116211</v>
+        <v>20.78706169128418</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>2023-08-23 15:00:00</t>
+          <t>2023-08-21 06:00:00</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>0.12780475616455078</v>
+        <v>0.12396318465471268</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>0.09517078846693039</v>
+        <v>0.11637865751981735</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>2.8085498809814453</v>
+        <v>2.7813665866851807</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>2.669827699661255</v>
+        <v>2.638657569885254</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>0.0</v>
+        <v>2.618586540222168</v>
       </c>
       <c r="G59" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>4.78380012512207</v>
+        <v>4.671599864959717</v>
       </c>
       <c r="I59" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J59" s="2" t="n">
-        <v>50.44967269897461</v>
+        <v>46.57254409790039</v>
       </c>
       <c r="K59" s="2" t="n">
-        <v>-19.495235443115234</v>
+        <v>-49.50194549560547</v>
       </c>
       <c r="L59" s="2" t="n">
-        <v>1019.9000854492188</v>
+        <v>1018.8823852539062</v>
       </c>
       <c r="M59" s="2" t="n">
-        <v>7.900000095367432</v>
+        <v>12.0</v>
       </c>
       <c r="N59" s="2" t="n">
-        <v>8.0</v>
+        <v>12.199999809265137</v>
       </c>
       <c r="O59" s="2" t="n">
-        <v>7.5</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P59" s="2" t="n">
-        <v>7.599999904632568</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="Q59" s="2" t="n">
-        <v>21.299999237060547</v>
+        <v>22.703006744384766</v>
       </c>
       <c r="R59" s="2" t="n">
-        <v>21.074636459350586</v>
+        <v>20.47065544128418</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>2023-08-23 17:00:00</t>
+          <t>2023-08-21 07:00:00</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>0.16609880328178406</v>
+        <v>0.1562238335609436</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>0.12767116725444794</v>
+        <v>0.14666548371315002</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>2.770747423171997</v>
+        <v>2.812934160232544</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>2.659130096435547</v>
+        <v>2.6700100898742676</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>2.6227667331695557</v>
+        <v>2.642542600631714</v>
       </c>
       <c r="G60" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>4.268700122833252</v>
+        <v>4.651200294494629</v>
       </c>
       <c r="I60" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J60" s="2" t="n">
-        <v>50.434261322021484</v>
+        <v>46.756980895996094</v>
       </c>
       <c r="K60" s="2" t="n">
-        <v>-18.313444137573242</v>
+        <v>-49.003684997558594</v>
       </c>
       <c r="L60" s="2" t="n">
-        <v>1019.5264282226562</v>
+        <v>1019.1040649414062</v>
       </c>
       <c r="M60" s="2" t="n">
-        <v>11.800000190734863</v>
+        <v>12.100000381469727</v>
       </c>
       <c r="N60" s="2" t="n">
-        <v>11.600000381469727</v>
+        <v>12.199999809265137</v>
       </c>
       <c r="O60" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="P60" s="2" t="n">
         <v>9.0</v>
       </c>
       <c r="Q60" s="2" t="n">
-        <v>23.100801467895508</v>
+        <v>23.20060157775879</v>
       </c>
       <c r="R60" s="2" t="n">
-        <v>19.86883544921875</v>
+        <v>20.267778396606445</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>2023-08-23 19:00:00</t>
+          <t>2023-08-21 08:00:00</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>0.054841477423906326</v>
+        <v>0.18848448991775513</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>0.1601715385913849</v>
+        <v>0.1769523173570633</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>2.7983081340789795</v>
+        <v>2.796194314956665</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>2.66984224319458</v>
+        <v>2.6676995754241943</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>2.6636548042297363</v>
+        <v>2.6280646324157715</v>
       </c>
       <c r="G61" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>4.5084004402160645</v>
+        <v>4.539000034332275</v>
       </c>
       <c r="I61" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J61" s="2" t="n">
-        <v>50.40538787841797</v>
+        <v>46.92119216918945</v>
       </c>
       <c r="K61" s="2" t="n">
-        <v>-17.079362869262695</v>
+        <v>-48.49321365356445</v>
       </c>
       <c r="L61" s="2" t="n">
-        <v>1019.1527709960938</v>
+        <v>1019.32568359375</v>
       </c>
       <c r="M61" s="2" t="n">
-        <v>11.800000190734863</v>
+        <v>12.300000190734863</v>
       </c>
       <c r="N61" s="2" t="n">
-        <v>11.699999809265137</v>
+        <v>12.199999809265137</v>
       </c>
       <c r="O61" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>9.5</v>
       </c>
       <c r="P61" s="2" t="n">
         <v>9.0</v>
       </c>
       <c r="Q61" s="2" t="n">
-        <v>22.233489990234375</v>
+        <v>22.501800537109375</v>
       </c>
       <c r="R61" s="2" t="n">
-        <v>18.01154327392578</v>
+        <v>20.108257293701172</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>2023-08-23 21:00:00</t>
+          <t>2023-08-21 09:00:00</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>0.1785144954919815</v>
+        <v>0.011387675069272518</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>0.19267190992832184</v>
+        <v>0.20723915100097656</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>2.754065990447998</v>
+        <v>2.79958176612854</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>2.6657559871673584</v>
+        <v>2.6557817459106445</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>2.6449666023254395</v>
+        <v>2.644397735595703</v>
       </c>
       <c r="G62" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>4.533900260925293</v>
+        <v>4.753200531005859</v>
       </c>
       <c r="I62" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J62" s="2" t="n">
-        <v>50.364444732666016</v>
+        <v>47.04802322387695</v>
       </c>
       <c r="K62" s="2" t="n">
-        <v>-15.867135047912598</v>
+        <v>-47.946964263916016</v>
       </c>
       <c r="L62" s="2" t="n">
-        <v>1018.7791748046875</v>
+        <v>1019.54736328125</v>
       </c>
       <c r="M62" s="2" t="n">
-        <v>11.600000381469727</v>
+        <v>12.40000057220459</v>
       </c>
       <c r="N62" s="2" t="n">
-        <v>12.0</v>
+        <v>12.199999809265137</v>
       </c>
       <c r="O62" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P62" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="Q62" s="2" t="n">
-        <v>22.59983253479004</v>
+        <v>22.698801040649414</v>
       </c>
       <c r="R62" s="2" t="n">
-        <v>19.98863983154297</v>
+        <v>19.631582260131836</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>2023-08-23 23:00:00</t>
+          <t>2023-08-21 10:00:00</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>0.08059363067150116</v>
+        <v>0.03785298764705658</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>0.22517229616641998</v>
+        <v>0.5339444279670715</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>2.7659707069396973</v>
+        <v>2.614703416824341</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>2.6598711013793945</v>
+        <v>2.4857335090637207</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>2.645009994506836</v>
+        <v>2.4430460929870605</v>
       </c>
       <c r="G63" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>4.294200420379639</v>
+        <v>0.0</v>
       </c>
       <c r="I63" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J63" s="2" t="n">
-        <v>50.31033706665039</v>
+        <v>47.15876388549805</v>
       </c>
       <c r="K63" s="2" t="n">
-        <v>-14.652009963989258</v>
+        <v>-47.451560974121094</v>
       </c>
       <c r="L63" s="2" t="n">
-        <v>1018.405517578125</v>
+        <v>1019.7689819335938</v>
       </c>
       <c r="M63" s="2" t="n">
-        <v>11.800000190734863</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="N63" s="2" t="n">
-        <v>11.90000057220459</v>
+        <v>6.200000286102295</v>
       </c>
       <c r="O63" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="P63" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="Q63" s="2" t="n">
-        <v>23.59969711303711</v>
+        <v>20.200607299804688</v>
       </c>
       <c r="R63" s="2" t="n">
-        <v>19.938404083251953</v>
+        <v>19.475629806518555</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>2023-08-24 01:00:00</t>
+          <t>2023-08-21 11:00:00</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>0.18820692598819733</v>
+        <v>0.06431829929351807</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>0.1833893358707428</v>
+        <v>0.6077346801757812</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>2.65020489692688</v>
+        <v>2.600346565246582</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>2.505316734313965</v>
+        <v>2.4573402404785156</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>2.4998042583465576</v>
+        <v>2.474485158920288</v>
       </c>
       <c r="G64" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>0.8058000206947327</v>
+        <v>0.0</v>
       </c>
       <c r="I64" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J64" s="2" t="n">
-        <v>50.24437713623047</v>
+        <v>47.272403717041016</v>
       </c>
       <c r="K64" s="2" t="n">
-        <v>-13.45111083984375</v>
+        <v>-47.000953674316406</v>
       </c>
       <c r="L64" s="2" t="n">
-        <v>1018.0318603515625</v>
+        <v>1019.9906616210938</v>
       </c>
       <c r="M64" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="N64" s="2" t="n">
         <v>6.300000190734863</v>
       </c>
-      <c r="N64" s="2" t="n">
-        <v>6.700000286102295</v>
-      </c>
       <c r="O64" s="2" t="n">
-        <v>6.099999904632568</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="P64" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="Q64" s="2" t="n">
-        <v>19.249473571777344</v>
+        <v>20.2000675201416</v>
       </c>
       <c r="R64" s="2" t="n">
-        <v>20.165863037109375</v>
+        <v>19.72273063659668</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>2023-08-24 03:00:00</t>
+          <t>2023-08-21 12:00:00</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>0.061353858560323715</v>
+        <v>0.09078361093997955</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>0.4114665687084198</v>
+        <v>0.6331067085266113</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>2.725820302963257</v>
+        <v>2.689908742904663</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>2.5460293292999268</v>
+        <v>2.5010616779327393</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>2.584733724594116</v>
+        <v>2.5275959968566895</v>
       </c>
       <c r="G65" s="2" t="n">
         <v>0.0</v>
@@ -3869,53 +3869,53 @@
         <v>0.0</v>
       </c>
       <c r="J65" s="2" t="n">
-        <v>50.17516326904297</v>
+        <v>47.38605880737305</v>
       </c>
       <c r="K65" s="2" t="n">
-        <v>-12.384334564208984</v>
+        <v>-46.54279708862305</v>
       </c>
       <c r="L65" s="2" t="n">
-        <v>1017.5389404296875</v>
+        <v>1020.2122802734375</v>
       </c>
       <c r="M65" s="2" t="n">
-        <v>6.900000095367432</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="N65" s="2" t="n">
-        <v>7.0</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="O65" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>6.0</v>
       </c>
       <c r="P65" s="2" t="n">
-        <v>6.5</v>
+        <v>6.0</v>
       </c>
       <c r="Q65" s="2" t="n">
-        <v>19.700334548950195</v>
+        <v>19.200000762939453</v>
       </c>
       <c r="R65" s="2" t="n">
-        <v>19.365131378173828</v>
+        <v>20.648828506469727</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>2023-08-24 05:00:00</t>
+          <t>2023-08-21 13:00:00</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>0.13955193758010864</v>
+        <v>0.11724892258644104</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>0.41750770807266235</v>
+        <v>0.4841478765010834</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>2.753411054611206</v>
+        <v>2.9130616188049316</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>2.5915565490722656</v>
+        <v>2.730038642883301</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>2.626235246658325</v>
+        <v>2.7364773750305176</v>
       </c>
       <c r="G66" s="2" t="n">
         <v>0.0</v>
@@ -3927,53 +3927,53 @@
         <v>0.0</v>
       </c>
       <c r="J66" s="2" t="n">
-        <v>50.09793472290039</v>
+        <v>47.49901580810547</v>
       </c>
       <c r="K66" s="2" t="n">
-        <v>-11.340734481811523</v>
+        <v>-46.07636642456055</v>
       </c>
       <c r="L66" s="2" t="n">
-        <v>1016.8510131835938</v>
+        <v>1020.4187622070312</v>
       </c>
       <c r="M66" s="2" t="n">
-        <v>6.800000190734863</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="N66" s="2" t="n">
         <v>7.0</v>
       </c>
       <c r="O66" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>6.5</v>
       </c>
       <c r="P66" s="2" t="n">
         <v>6.5</v>
       </c>
       <c r="Q66" s="2" t="n">
-        <v>20.8665771484375</v>
+        <v>20.10124969482422</v>
       </c>
       <c r="R66" s="2" t="n">
-        <v>19.183462142944336</v>
+        <v>21.23200225830078</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>2023-08-24 07:00:00</t>
+          <t>2023-08-21 14:00:00</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>0.006300677545368671</v>
+        <v>0.14371423423290253</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>0.4878213405609131</v>
+        <v>0.43982911109924316</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>2.844942092895508</v>
+        <v>2.8410840034484863</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>2.672565460205078</v>
+        <v>2.671217679977417</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>2.6622164249420166</v>
+        <v>2.6718740463256836</v>
       </c>
       <c r="G67" s="2" t="n">
         <v>0.0</v>
@@ -3985,53 +3985,53 @@
         <v>0.0</v>
       </c>
       <c r="J67" s="2" t="n">
-        <v>50.01018142700195</v>
+        <v>47.612205505371094</v>
       </c>
       <c r="K67" s="2" t="n">
-        <v>-10.29101848602295</v>
+        <v>-45.600887298583984</v>
       </c>
       <c r="L67" s="2" t="n">
-        <v>1016.1630249023438</v>
+        <v>1020.5413818359375</v>
       </c>
       <c r="M67" s="2" t="n">
+        <v>6.701200485229492</v>
+      </c>
+      <c r="N67" s="2" t="n">
         <v>6.900000095367432</v>
       </c>
-      <c r="N67" s="2" t="n">
-        <v>7.0</v>
-      </c>
       <c r="O67" s="2" t="n">
-        <v>6.5</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="P67" s="2" t="n">
-        <v>6.5</v>
+        <v>6.400599956512451</v>
       </c>
       <c r="Q67" s="2" t="n">
-        <v>20.04982566833496</v>
+        <v>20.649246215820312</v>
       </c>
       <c r="R67" s="2" t="n">
-        <v>18.629894256591797</v>
+        <v>21.973051071166992</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>2023-08-24 09:00:00</t>
+          <t>2023-08-21 15:00:00</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>0.04890759289264679</v>
+        <v>0.170179545879364</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>0.4834650456905365</v>
+        <v>0.4324931502342224</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>2.7584049701690674</v>
+        <v>2.829496145248413</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>2.62125563621521</v>
+        <v>2.6549570560455322</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>2.627000331878662</v>
+        <v>2.652434825897217</v>
       </c>
       <c r="G68" s="2" t="n">
         <v>0.0</v>
@@ -4043,53 +4043,53 @@
         <v>0.0</v>
       </c>
       <c r="J68" s="2" t="n">
-        <v>49.912296295166016</v>
+        <v>47.72449493408203</v>
       </c>
       <c r="K68" s="2" t="n">
-        <v>-9.236366271972656</v>
+        <v>-45.1171875</v>
       </c>
       <c r="L68" s="2" t="n">
-        <v>1015.47509765625</v>
+        <v>1020.6640014648438</v>
       </c>
       <c r="M68" s="2" t="n">
-        <v>6.5</v>
+        <v>6.700000286102295</v>
       </c>
       <c r="N68" s="2" t="n">
         <v>6.700000286102295</v>
       </c>
       <c r="O68" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>6.5</v>
       </c>
       <c r="P68" s="2" t="n">
         <v>6.400000095367432</v>
       </c>
       <c r="Q68" s="2" t="n">
-        <v>19.79939842224121</v>
+        <v>21.166397094726562</v>
       </c>
       <c r="R68" s="2" t="n">
-        <v>19.966806411743164</v>
+        <v>21.24838638305664</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>2023-08-24 11:00:00</t>
+          <t>2023-08-21 16:00:00</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>0.09151450544595718</v>
+        <v>0.03535321727395058</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>0.4265948534011841</v>
+        <v>0.40010005235671997</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>2.80790638923645</v>
+        <v>2.900484561920166</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>2.634216070175171</v>
+        <v>2.7259202003479004</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>2.6271159648895264</v>
+        <v>2.7512433528900146</v>
       </c>
       <c r="G69" s="2" t="n">
         <v>0.0</v>
@@ -4101,53 +4101,53 @@
         <v>0.0</v>
       </c>
       <c r="J69" s="2" t="n">
-        <v>49.77454376220703</v>
+        <v>47.8343505859375</v>
       </c>
       <c r="K69" s="2" t="n">
-        <v>-8.195212364196777</v>
+        <v>-44.63387680053711</v>
       </c>
       <c r="L69" s="2" t="n">
-        <v>1014.7871704101562</v>
+        <v>1020.78662109375</v>
       </c>
       <c r="M69" s="2" t="n">
+        <v>6.900000095367432</v>
+      </c>
+      <c r="N69" s="2" t="n">
         <v>6.800000190734863</v>
       </c>
-      <c r="N69" s="2" t="n">
-        <v>6.5</v>
-      </c>
       <c r="O69" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="P69" s="2" t="n">
         <v>6.400000095367432</v>
       </c>
       <c r="Q69" s="2" t="n">
-        <v>20.233043670654297</v>
+        <v>21.50006675720215</v>
       </c>
       <c r="R69" s="2" t="n">
-        <v>22.40101432800293</v>
+        <v>20.32903289794922</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>2023-08-24 13:00:00</t>
+          <t>2023-08-21 17:00:00</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>0.13412141799926758</v>
+        <v>0.09986860305070877</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>0.550140917301178</v>
+        <v>0.3295339345932007</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>2.7694122791290283</v>
+        <v>2.824841022491455</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>2.608490228652954</v>
+        <v>2.678722620010376</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>2.6242430210113525</v>
+        <v>2.6808900833129883</v>
       </c>
       <c r="G70" s="2" t="n">
         <v>0.0</v>
@@ -4159,494 +4159,4902 @@
         <v>0.0</v>
       </c>
       <c r="J70" s="2" t="n">
-        <v>49.67366409301758</v>
+        <v>47.94107437133789</v>
       </c>
       <c r="K70" s="2" t="n">
-        <v>-7.16135311126709</v>
+        <v>-44.152164459228516</v>
       </c>
       <c r="L70" s="2" t="n">
-        <v>1014.0992431640625</v>
+        <v>1020.9092407226562</v>
       </c>
       <c r="M70" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>7.0</v>
       </c>
       <c r="N70" s="2" t="n">
-        <v>6.5</v>
+        <v>7.0</v>
       </c>
       <c r="O70" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="P70" s="2" t="n">
         <v>6.400000095367432</v>
       </c>
-      <c r="P70" s="2" t="n">
-        <v>6.5</v>
-      </c>
       <c r="Q70" s="2" t="n">
-        <v>19.900066375732422</v>
+        <v>20.47556495666504</v>
       </c>
       <c r="R70" s="2" t="n">
-        <v>22.88850212097168</v>
+        <v>19.95306968688965</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>2023-08-24 15:00:00</t>
+          <t>2023-08-21 18:00:00</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>0.17672833800315857</v>
+        <v>0.11649220436811447</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>0.4320451617240906</v>
+        <v>0.005693297367542982</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>2.7493700981140137</v>
+        <v>2.8047919273376465</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>2.6038382053375244</v>
+        <v>0.0</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>2.6145570278167725</v>
+        <v>2.646676540374756</v>
       </c>
       <c r="G71" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>0.0</v>
+        <v>3.136500358581543</v>
       </c>
       <c r="I71" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J71" s="2" t="n">
-        <v>49.63370895385742</v>
+        <v>48.04642868041992</v>
       </c>
       <c r="K71" s="2" t="n">
-        <v>-6.147924423217773</v>
+        <v>-43.667789459228516</v>
       </c>
       <c r="L71" s="2" t="n">
-        <v>1013.4113159179688</v>
+        <v>1021.027099609375</v>
       </c>
       <c r="M71" s="2" t="n">
-        <v>6.5</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="N71" s="2" t="n">
-        <v>6.5</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="O71" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>5.700000286102295</v>
       </c>
       <c r="P71" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>5.599999904632568</v>
       </c>
       <c r="Q71" s="2" t="n">
-        <v>19.599699020385742</v>
+        <v>19.00040054321289</v>
       </c>
       <c r="R71" s="2" t="n">
-        <v>21.299999237060547</v>
+        <v>19.720075607299805</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>2023-08-24 17:00:00</t>
+          <t>2023-08-21 19:00:00</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>0.02488364651799202</v>
+        <v>0.09621825069189072</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>0.483329713344574</v>
+        <v>0.027879849076271057</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>2.7635605335235596</v>
+        <v>2.7506651878356934</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>2.6002869606018066</v>
+        <v>2.6173179149627686</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>2.621506690979004</v>
+        <v>2.590606451034546</v>
       </c>
       <c r="G72" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H72" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6979002952575684</v>
       </c>
       <c r="I72" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J72" s="2" t="n">
-        <v>49.80860900878906</v>
+        <v>48.15406036376953</v>
       </c>
       <c r="K72" s="2" t="n">
-        <v>-5.152854919433594</v>
+        <v>-43.15950393676758</v>
       </c>
       <c r="L72" s="2" t="n">
-        <v>1012.723388671875</v>
+        <v>1021.1314697265625</v>
       </c>
       <c r="M72" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="N72" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="O72" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="P72" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>7.700000286102295</v>
       </c>
       <c r="Q72" s="2" t="n">
-        <v>19.966890335083008</v>
+        <v>21.799999237060547</v>
       </c>
       <c r="R72" s="2" t="n">
-        <v>21.476865768432617</v>
+        <v>19.501197814941406</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>2023-08-24 19:00:00</t>
+          <t>2023-08-21 20:00:00</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>0.13197270035743713</v>
+        <v>0.07915469259023666</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>0.46781760454177856</v>
+        <v>0.050066400319337845</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>2.774625778198242</v>
+        <v>2.8043806552886963</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>2.6329288482666016</v>
+        <v>2.6859493255615234</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>2.6244707107543945</v>
+        <v>2.639193058013916</v>
       </c>
       <c r="G73" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H73" s="2" t="n">
-        <v>0.0</v>
+        <v>4.493100166320801</v>
       </c>
       <c r="I73" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J73" s="2" t="n">
-        <v>49.99217224121094</v>
+        <v>48.27195739746094</v>
       </c>
       <c r="K73" s="2" t="n">
-        <v>-4.141595840454102</v>
+        <v>-42.58616638183594</v>
       </c>
       <c r="L73" s="2" t="n">
-        <v>1012.035400390625</v>
+        <v>1021.23583984375</v>
       </c>
       <c r="M73" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>11.800000190734863</v>
       </c>
       <c r="N73" s="2" t="n">
-        <v>6.5</v>
+        <v>11.90000057220459</v>
       </c>
       <c r="O73" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.0</v>
       </c>
       <c r="P73" s="2" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q73" s="2" t="n">
-        <v>19.76594352722168</v>
+        <v>23.29959487915039</v>
       </c>
       <c r="R73" s="2" t="n">
-        <v>20.20591926574707</v>
+        <v>20.16423797607422</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>2023-08-24 21:00:00</t>
+          <t>2023-08-21 21:00:00</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>0.07100345939397812</v>
+        <v>0.050203967839479446</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>0.5721893906593323</v>
+        <v>0.07225295156240463</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>2.759010076522827</v>
+        <v>2.7881946563720703</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>2.607186794281006</v>
+        <v>2.6623690128326416</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>2.6144187450408936</v>
+        <v>2.633929967880249</v>
       </c>
       <c r="G74" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H74" s="2" t="n">
-        <v>0.0</v>
+        <v>4.437000274658203</v>
       </c>
       <c r="I74" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J74" s="2" t="n">
-        <v>50.16690444946289</v>
+        <v>48.38645935058594</v>
       </c>
       <c r="K74" s="2" t="n">
-        <v>-3.1303443908691406</v>
+        <v>-42.01482009887695</v>
       </c>
       <c r="L74" s="2" t="n">
-        <v>1011.3474731445312</v>
+        <v>1021.3402099609375</v>
       </c>
       <c r="M74" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>12.199999809265137</v>
       </c>
       <c r="N74" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>11.90000057220459</v>
       </c>
       <c r="O74" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="P74" s="2" t="n">
-        <v>6.5</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="Q74" s="2" t="n">
-        <v>19.82559585571289</v>
+        <v>22.701602935791016</v>
       </c>
       <c r="R74" s="2" t="n">
-        <v>19.486845016479492</v>
+        <v>20.28337860107422</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>2023-08-24 23:00:00</t>
+          <t>2023-08-21 22:00:00</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>0.11450978368520737</v>
+        <v>0.08344986289739609</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>0.3148987293243408</v>
+        <v>0.09443950653076172</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>1.624467134475708</v>
+        <v>2.803870677947998</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>1.627347469329834</v>
+        <v>2.6590335369110107</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>1.5347334146499634</v>
+        <v>2.641207456588745</v>
       </c>
       <c r="G75" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H75" s="2" t="n">
-        <v>0.0</v>
+        <v>4.646100044250488</v>
       </c>
       <c r="I75" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J75" s="2" t="n">
-        <v>50.33537673950195</v>
+        <v>48.50074005126953</v>
       </c>
       <c r="K75" s="2" t="n">
-        <v>-2.14845871925354</v>
+        <v>-41.450904846191406</v>
       </c>
       <c r="L75" s="2" t="n">
-        <v>1010.6595458984375</v>
+        <v>1021.444580078125</v>
       </c>
       <c r="M75" s="2" t="n">
-        <v>3.1000001430511475</v>
+        <v>12.40000057220459</v>
       </c>
       <c r="N75" s="2" t="n">
-        <v>3.0</v>
+        <v>12.5</v>
       </c>
       <c r="O75" s="2" t="n">
-        <v>3.0</v>
+        <v>8.5</v>
       </c>
       <c r="P75" s="2" t="n">
-        <v>3.0</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="Q75" s="2" t="n">
-        <v>15.700404167175293</v>
+        <v>23.199697494506836</v>
       </c>
       <c r="R75" s="2" t="n">
-        <v>19.3831844329834</v>
+        <v>21.29006004333496</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>2023-08-25 01:00:00</t>
+          <t>2023-08-21 23:00:00</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>0.06355471163988113</v>
+        <v>0.1884712278842926</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>0.34590476751327515</v>
+        <v>0.1166260614991188</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>1.6805338859558105</v>
+        <v>2.7943224906921387</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>1.6465814113616943</v>
+        <v>2.6524157524108887</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>1.6100062131881714</v>
+        <v>2.6153316497802734</v>
       </c>
       <c r="G76" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H76" s="2" t="n">
-        <v>0.0</v>
+        <v>4.5084004402160645</v>
       </c>
       <c r="I76" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J76" s="2" t="n">
-        <v>50.487117767333984</v>
+        <v>48.605525970458984</v>
       </c>
       <c r="K76" s="2" t="n">
-        <v>-1.1959539651870728</v>
+        <v>-40.868934631347656</v>
       </c>
       <c r="L76" s="2" t="n">
-        <v>1010.1712646484375</v>
+        <v>1021.5489501953125</v>
       </c>
       <c r="M76" s="2" t="n">
-        <v>3.4000000953674316</v>
+        <v>12.199999809265137</v>
       </c>
       <c r="N76" s="2" t="n">
-        <v>3.4000000953674316</v>
+        <v>12.5</v>
       </c>
       <c r="O76" s="2" t="n">
-        <v>3.299999952316284</v>
+        <v>8.5</v>
       </c>
       <c r="P76" s="2" t="n">
-        <v>3.299999952316284</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="Q76" s="2" t="n">
-        <v>15.800000190734863</v>
+        <v>23.224943161010742</v>
       </c>
       <c r="R76" s="2" t="n">
-        <v>19.197471618652344</v>
+        <v>21.971540451049805</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>2023-08-25 03:00:00</t>
+          <t>2023-08-22 00:00:00</t>
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>0.17299941182136536</v>
+        <v>0.058639850467443466</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>0.38446345925331116</v>
+        <v>0.1388126164674759</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>0.0</v>
+        <v>2.8232474327087402</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>1.0815824270248413</v>
+        <v>2.67334246635437</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>1.0595667362213135</v>
+        <v>2.6558499336242676</v>
       </c>
       <c r="G77" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H77" s="2" t="n">
-        <v>2.422499895095825</v>
+        <v>4.273799896240234</v>
       </c>
       <c r="I77" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J77" s="2" t="n">
-        <v>50.68408203125</v>
+        <v>48.71320724487305</v>
       </c>
       <c r="K77" s="2" t="n">
-        <v>-0.9659507274627686</v>
+        <v>-40.27933120727539</v>
       </c>
       <c r="L77" s="2" t="n">
-        <v>1010.08447265625</v>
+        <v>1021.6533203125</v>
       </c>
       <c r="M77" s="2" t="n">
-        <v>1.5</v>
+        <v>12.600000381469727</v>
       </c>
       <c r="N77" s="2" t="n">
-        <v>1.399999976158142</v>
+        <v>12.600000381469727</v>
       </c>
       <c r="O77" s="2" t="n">
-        <v>1.7000000476837158</v>
+        <v>8.40000057220459</v>
       </c>
       <c r="P77" s="2" t="n">
-        <v>1.5</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="Q77" s="2" t="n">
-        <v>11.200599670410156</v>
+        <v>23.550687789916992</v>
       </c>
       <c r="R77" s="2" t="n">
-        <v>18.52389144897461</v>
+        <v>22.326135635375977</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
+          <t>2023-08-22 01:00:00</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>0.12526026368141174</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>0.16099916398525238</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>2.7949557304382324</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>2.661062240600586</v>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>2.626373767852783</v>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>4.554300308227539</v>
+      </c>
+      <c r="I78" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J78" s="2" t="n">
+        <v>48.816707611083984</v>
+      </c>
+      <c r="K78" s="2" t="n">
+        <v>-39.694461822509766</v>
+      </c>
+      <c r="L78" s="2" t="n">
+        <v>1021.7576904296875</v>
+      </c>
+      <c r="M78" s="2" t="n">
+        <v>12.199999809265137</v>
+      </c>
+      <c r="N78" s="2" t="n">
+        <v>12.300000190734863</v>
+      </c>
+      <c r="O78" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P78" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q78" s="2" t="n">
+        <v>23.69879722595215</v>
+      </c>
+      <c r="R78" s="2" t="n">
+        <v>20.500890731811523</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-22 02:00:00</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>0.19188067317008972</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>0.18318571150302887</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>2.816436290740967</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>2.6884207725524902</v>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>2.6499183177948</v>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>4.712399959564209</v>
+      </c>
+      <c r="I79" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J79" s="2" t="n">
+        <v>48.91523361206055</v>
+      </c>
+      <c r="K79" s="2" t="n">
+        <v>-39.1196174621582</v>
+      </c>
+      <c r="L79" s="2" t="n">
+        <v>1021.862060546875</v>
+      </c>
+      <c r="M79" s="2" t="n">
+        <v>12.199999809265137</v>
+      </c>
+      <c r="N79" s="2" t="n">
+        <v>12.300000190734863</v>
+      </c>
+      <c r="O79" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P79" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q79" s="2" t="n">
+        <v>23.500133514404297</v>
+      </c>
+      <c r="R79" s="2" t="n">
+        <v>19.855960845947266</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-22 03:00:00</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>0.03236107528209686</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>0.20537227392196655</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>2.7735483646392822</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>2.6396114826202393</v>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>2.6074907779693604</v>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>4.4982008934021</v>
+      </c>
+      <c r="I80" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J80" s="2" t="n">
+        <v>49.01051330566406</v>
+      </c>
+      <c r="K80" s="2" t="n">
+        <v>-38.54405212402344</v>
+      </c>
+      <c r="L80" s="2" t="n">
+        <v>1021.9664306640625</v>
+      </c>
+      <c r="M80" s="2" t="n">
+        <v>12.40000057220459</v>
+      </c>
+      <c r="N80" s="2" t="n">
+        <v>12.600000381469727</v>
+      </c>
+      <c r="O80" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P80" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="Q80" s="2" t="n">
+        <v>23.742881774902344</v>
+      </c>
+      <c r="R80" s="2" t="n">
+        <v>20.132925033569336</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-22 04:00:00</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>0.06952584534883499</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>0.22755882143974304</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>2.793227434158325</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>2.6600990295410156</v>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>2.625762701034546</v>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>4.743000030517578</v>
+      </c>
+      <c r="I81" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J81" s="2" t="n">
+        <v>49.10230255126953</v>
+      </c>
+      <c r="K81" s="2" t="n">
+        <v>-37.96723175048828</v>
+      </c>
+      <c r="L81" s="2" t="n">
+        <v>1022.07080078125</v>
+      </c>
+      <c r="M81" s="2" t="n">
+        <v>12.40000057220459</v>
+      </c>
+      <c r="N81" s="2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="O81" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P81" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="Q81" s="2" t="n">
+        <v>23.50010108947754</v>
+      </c>
+      <c r="R81" s="2" t="n">
+        <v>19.35038185119629</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-22 05:00:00</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>0.10669061541557312</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>0.24974536895751953</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>2.8012895584106445</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>2.679892063140869</v>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>2.6312005519866943</v>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>4.78380012512207</v>
+      </c>
+      <c r="I82" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J82" s="2" t="n">
+        <v>49.19141387939453</v>
+      </c>
+      <c r="K82" s="2" t="n">
+        <v>-37.388919830322266</v>
+      </c>
+      <c r="L82" s="2" t="n">
+        <v>1022.1751708984375</v>
+      </c>
+      <c r="M82" s="2" t="n">
+        <v>12.40000057220459</v>
+      </c>
+      <c r="N82" s="2" t="n">
+        <v>12.800000190734863</v>
+      </c>
+      <c r="O82" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P82" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="Q82" s="2" t="n">
+        <v>22.950376510620117</v>
+      </c>
+      <c r="R82" s="2" t="n">
+        <v>18.744674682617188</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-22 06:00:00</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>0.14385537803173065</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>0.07073628902435303</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>2.801903247833252</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>2.676311731338501</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>2.6364996433258057</v>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>4.3809003829956055</v>
+      </c>
+      <c r="I83" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J83" s="2" t="n">
+        <v>49.27892303466797</v>
+      </c>
+      <c r="K83" s="2" t="n">
+        <v>-36.80034255981445</v>
+      </c>
+      <c r="L83" s="2" t="n">
+        <v>1022.279541015625</v>
+      </c>
+      <c r="M83" s="2" t="n">
+        <v>12.300000190734863</v>
+      </c>
+      <c r="N83" s="2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="O83" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P83" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q83" s="2" t="n">
+        <v>23.999834060668945</v>
+      </c>
+      <c r="R83" s="2" t="n">
+        <v>18.676292419433594</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-22 07:00:00</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>0.18102015554904938</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>0.16957752406597137</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>2.8155574798583984</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>2.668661594390869</v>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>2.644972085952759</v>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>4.416600227355957</v>
+      </c>
+      <c r="I84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J84" s="2" t="n">
+        <v>49.36369705200195</v>
+      </c>
+      <c r="K84" s="2" t="n">
+        <v>-36.20756149291992</v>
+      </c>
+      <c r="L84" s="2" t="n">
+        <v>1022.3839111328125</v>
+      </c>
+      <c r="M84" s="2" t="n">
+        <v>12.100000381469727</v>
+      </c>
+      <c r="N84" s="2" t="n">
+        <v>11.90000057220459</v>
+      </c>
+      <c r="O84" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P84" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q84" s="2" t="n">
+        <v>24.33340072631836</v>
+      </c>
+      <c r="R84" s="2" t="n">
+        <v>18.69305419921875</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>0.08160042762756348</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>0.2849121689796448</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>2.2993671894073486</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>2.1715128421783447</v>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>2.1868607997894287</v>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>0.8262001276016235</v>
+      </c>
+      <c r="I85" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J85" s="2" t="n">
+        <v>49.43696975708008</v>
+      </c>
+      <c r="K85" s="2" t="n">
+        <v>-35.676795959472656</v>
+      </c>
+      <c r="L85" s="2" t="n">
+        <v>1022.48828125</v>
+      </c>
+      <c r="M85" s="2" t="n">
+        <v>5.200000286102295</v>
+      </c>
+      <c r="N85" s="2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O85" s="2" t="n">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="P85" s="2" t="n">
+        <v>4.900000095367432</v>
+      </c>
+      <c r="Q85" s="2" t="n">
+        <v>18.660057067871094</v>
+      </c>
+      <c r="R85" s="2" t="n">
+        <v>18.643522262573242</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-22 09:00:00</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>0.004952607676386833</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>0.7749761343002319</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>2.843895435333252</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>2.6961112022399902</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>2.7195558547973633</v>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I86" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J86" s="2" t="n">
+        <v>49.50060272216797</v>
+      </c>
+      <c r="K86" s="2" t="n">
+        <v>-35.19709396362305</v>
+      </c>
+      <c r="L86" s="2" t="n">
+        <v>1022.5926513671875</v>
+      </c>
+      <c r="M86" s="2" t="n">
+        <v>7.200000286102295</v>
+      </c>
+      <c r="N86" s="2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O86" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="P86" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="Q86" s="2" t="n">
+        <v>21.27136993408203</v>
+      </c>
+      <c r="R86" s="2" t="n">
+        <v>18.46954917907715</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-22 10:00:00</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>0.03030572645366192</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>0.7292472124099731</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>2.7895171642303467</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>2.6474504470825195</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>2.6051082611083984</v>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J87" s="2" t="n">
+        <v>49.56283187866211</v>
+      </c>
+      <c r="K87" s="2" t="n">
+        <v>-34.711509704589844</v>
+      </c>
+      <c r="L87" s="2" t="n">
+        <v>1022.697021484375</v>
+      </c>
+      <c r="M87" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N87" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O87" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P87" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="Q87" s="2" t="n">
+        <v>20.633501052856445</v>
+      </c>
+      <c r="R87" s="2" t="n">
+        <v>18.775983810424805</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-22 11:00:00</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>0.05565884709358215</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>0.6006345152854919</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>2.812551736831665</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>2.645249128341675</v>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>2.6445505619049072</v>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I88" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J88" s="2" t="n">
+        <v>49.62578201293945</v>
+      </c>
+      <c r="K88" s="2" t="n">
+        <v>-34.22086715698242</v>
+      </c>
+      <c r="L88" s="2" t="n">
+        <v>1022.799560546875</v>
+      </c>
+      <c r="M88" s="2" t="n">
+        <v>6.900000095367432</v>
+      </c>
+      <c r="N88" s="2" t="n">
+        <v>6.900000095367432</v>
+      </c>
+      <c r="O88" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P88" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q88" s="2" t="n">
+        <v>19.666465759277344</v>
+      </c>
+      <c r="R88" s="2" t="n">
+        <v>19.656116485595703</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-22 12:00:00</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>0.08101196587085724</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>0.6761137247085571</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>2.841905117034912</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>2.6638715267181396</v>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>2.6747303009033203</v>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I89" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J89" s="2" t="n">
+        <v>49.68404769897461</v>
+      </c>
+      <c r="K89" s="2" t="n">
+        <v>-33.71439743041992</v>
+      </c>
+      <c r="L89" s="2" t="n">
+        <v>1022.7613525390625</v>
+      </c>
+      <c r="M89" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="N89" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="O89" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P89" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q89" s="2" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="R89" s="2" t="n">
+        <v>18.442296981811523</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-22 13:00:00</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>0.10636508464813232</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>0.45412513613700867</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>2.8430378437042236</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>2.6591787338256836</v>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>2.641799211502075</v>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I90" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J90" s="2" t="n">
+        <v>49.74271774291992</v>
+      </c>
+      <c r="K90" s="2" t="n">
+        <v>-33.205345153808594</v>
+      </c>
+      <c r="L90" s="2" t="n">
+        <v>1022.72314453125</v>
+      </c>
+      <c r="M90" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N90" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O90" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="P90" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q90" s="2" t="n">
+        <v>19.701202392578125</v>
+      </c>
+      <c r="R90" s="2" t="n">
+        <v>19.29172706604004</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-22 14:00:00</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>0.1317182034254074</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>0.6370621919631958</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>2.8035531044006348</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>2.6441593170166016</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>2.6783807277679443</v>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J91" s="2" t="n">
+        <v>49.798885345458984</v>
+      </c>
+      <c r="K91" s="2" t="n">
+        <v>-32.69205856323242</v>
+      </c>
+      <c r="L91" s="2" t="n">
+        <v>1022.6849365234375</v>
+      </c>
+      <c r="M91" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="N91" s="2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O91" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P91" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q91" s="2" t="n">
+        <v>20.699064254760742</v>
+      </c>
+      <c r="R91" s="2" t="n">
+        <v>18.55768394470215</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-22 15:00:00</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>0.1570713222026825</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>0.45261460542678833</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>2.787973642349243</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>2.6336307525634766</v>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>2.609424352645874</v>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J92" s="2" t="n">
+        <v>49.852783203125</v>
+      </c>
+      <c r="K92" s="2" t="n">
+        <v>-32.18074035644531</v>
+      </c>
+      <c r="L92" s="2" t="n">
+        <v>1022.646728515625</v>
+      </c>
+      <c r="M92" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N92" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O92" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P92" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="Q92" s="2" t="n">
+        <v>19.700300216674805</v>
+      </c>
+      <c r="R92" s="2" t="n">
+        <v>18.91619873046875</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-22 16:00:00</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>0.18242444097995758</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>0.5069277286529541</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>2.785928964614868</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>2.6326568126678467</v>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>2.611117124557495</v>
+      </c>
+      <c r="G93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J93" s="2" t="n">
+        <v>49.903995513916016</v>
+      </c>
+      <c r="K93" s="2" t="n">
+        <v>-31.672338485717773</v>
+      </c>
+      <c r="L93" s="2" t="n">
+        <v>1022.6085205078125</v>
+      </c>
+      <c r="M93" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N93" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="O93" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P93" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q93" s="2" t="n">
+        <v>20.666845321655273</v>
+      </c>
+      <c r="R93" s="2" t="n">
+        <v>18.7634220123291</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-22 17:00:00</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>5.957878311164677E-4</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>0.4740843176841736</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>2.791727304458618</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>2.6405868530273438</v>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>2.617354393005371</v>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J94" s="2" t="n">
+        <v>49.95320510864258</v>
+      </c>
+      <c r="K94" s="2" t="n">
+        <v>-31.161298751831055</v>
+      </c>
+      <c r="L94" s="2" t="n">
+        <v>1022.5703125</v>
+      </c>
+      <c r="M94" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="N94" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="O94" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P94" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q94" s="2" t="n">
+        <v>18.800199508666992</v>
+      </c>
+      <c r="R94" s="2" t="n">
+        <v>18.537845611572266</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:00:00</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>0.020956765860319138</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>0.5938404202461243</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>2.7661783695220947</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>2.5910439491271973</v>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>2.5982329845428467</v>
+      </c>
+      <c r="G95" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I95" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J95" s="2" t="n">
+        <v>49.99991226196289</v>
+      </c>
+      <c r="K95" s="2" t="n">
+        <v>-30.648820877075195</v>
+      </c>
+      <c r="L95" s="2" t="n">
+        <v>1022.5321044921875</v>
+      </c>
+      <c r="M95" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="N95" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="O95" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P95" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q95" s="2" t="n">
+        <v>19.698793411254883</v>
+      </c>
+      <c r="R95" s="2" t="n">
+        <v>18.747468948364258</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-22 19:00:00</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>0.04131774604320526</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>0.6341451406478882</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>2.7691502571105957</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>2.599034309387207</v>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>2.5996153354644775</v>
+      </c>
+      <c r="G96" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I96" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J96" s="2" t="n">
+        <v>50.04435348510742</v>
+      </c>
+      <c r="K96" s="2" t="n">
+        <v>-30.13713836669922</v>
+      </c>
+      <c r="L96" s="2" t="n">
+        <v>1022.493896484375</v>
+      </c>
+      <c r="M96" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N96" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O96" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="P96" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q96" s="2" t="n">
+        <v>19.7997989654541</v>
+      </c>
+      <c r="R96" s="2" t="n">
+        <v>18.134061813354492</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-22 20:00:00</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>0.27752426266670227</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>0.3418319523334503</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>2.7873427867889404</v>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>2.6173593997955322</v>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>2.6203973293304443</v>
+      </c>
+      <c r="G97" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H97" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I97" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J97" s="2" t="n">
+        <v>50.08674240112305</v>
+      </c>
+      <c r="K97" s="2" t="n">
+        <v>-29.62468719482422</v>
+      </c>
+      <c r="L97" s="2" t="n">
+        <v>1022.4556274414062</v>
+      </c>
+      <c r="M97" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N97" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O97" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="P97" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="Q97" s="2" t="n">
+        <v>20.09988021850586</v>
+      </c>
+      <c r="R97" s="2" t="n">
+        <v>17.7435245513916</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-22 21:00:00</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>0.07725392282009125</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>0.7044590711593628</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>2.7317168712615967</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>2.556239366531372</v>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>2.5755012035369873</v>
+      </c>
+      <c r="G98" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H98" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I98" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J98" s="2" t="n">
+        <v>50.12696075439453</v>
+      </c>
+      <c r="K98" s="2" t="n">
+        <v>-29.105823516845703</v>
+      </c>
+      <c r="L98" s="2" t="n">
+        <v>1022.4174194335938</v>
+      </c>
+      <c r="M98" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N98" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O98" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="P98" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="Q98" s="2" t="n">
+        <v>19.399999618530273</v>
+      </c>
+      <c r="R98" s="2" t="n">
+        <v>17.798925399780273</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-22 22:00:00</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>0.16568398475646973</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>0.5858195424079895</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>2.7459311485290527</v>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>2.569871425628662</v>
+      </c>
+      <c r="F99" s="2" t="n">
+        <v>2.567157506942749</v>
+      </c>
+      <c r="G99" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H99" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I99" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J99" s="2" t="n">
+        <v>50.16466522216797</v>
+      </c>
+      <c r="K99" s="2" t="n">
+        <v>-28.591821670532227</v>
+      </c>
+      <c r="L99" s="2" t="n">
+        <v>1022.3792114257812</v>
+      </c>
+      <c r="M99" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N99" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O99" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="P99" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="Q99" s="2" t="n">
+        <v>19.62491226196289</v>
+      </c>
+      <c r="R99" s="2" t="n">
+        <v>17.867586135864258</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-22 23:00:00</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>0.02630850486457348</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>0.5464373230934143</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>2.7328739166259766</v>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>2.5466771125793457</v>
+      </c>
+      <c r="F100" s="2" t="n">
+        <v>2.555445909500122</v>
+      </c>
+      <c r="G100" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I100" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J100" s="2" t="n">
+        <v>50.19978713989258</v>
+      </c>
+      <c r="K100" s="2" t="n">
+        <v>-28.080530166625977</v>
+      </c>
+      <c r="L100" s="2" t="n">
+        <v>1022.3410034179688</v>
+      </c>
+      <c r="M100" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N100" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O100" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="P100" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="Q100" s="2" t="n">
+        <v>19.766176223754883</v>
+      </c>
+      <c r="R100" s="2" t="n">
+        <v>17.600000381469727</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>0.08692729473114014</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>0.5434082746505737</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>2.70455265045166</v>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>2.50711989402771</v>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>2.4989497661590576</v>
+      </c>
+      <c r="G101" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I101" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J101" s="2" t="n">
+        <v>50.23263168334961</v>
+      </c>
+      <c r="K101" s="2" t="n">
+        <v>-27.56731414794922</v>
+      </c>
+      <c r="L101" s="2" t="n">
+        <v>1022.3027954101562</v>
+      </c>
+      <c r="M101" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N101" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O101" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="P101" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q101" s="2" t="n">
+        <v>20.40020179748535</v>
+      </c>
+      <c r="R101" s="2" t="n">
+        <v>17.787113189697266</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-23 01:00:00</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>0.14754608273506165</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>0.48002368211746216</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>2.7248153686523438</v>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>2.518754243850708</v>
+      </c>
+      <c r="F102" s="2" t="n">
+        <v>2.509510040283203</v>
+      </c>
+      <c r="G102" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H102" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I102" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J102" s="2" t="n">
+        <v>50.26342010498047</v>
+      </c>
+      <c r="K102" s="2" t="n">
+        <v>-27.048723220825195</v>
+      </c>
+      <c r="L102" s="2" t="n">
+        <v>1022.2645874023438</v>
+      </c>
+      <c r="M102" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N102" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O102" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="P102" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="Q102" s="2" t="n">
+        <v>19.30120086669922</v>
+      </c>
+      <c r="R102" s="2" t="n">
+        <v>17.621259689331055</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-23 02:00:00</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>0.33065930008888245</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>0.5028523802757263</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>2.7031946182250977</v>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>2.5097103118896484</v>
+      </c>
+      <c r="F103" s="2" t="n">
+        <v>2.5022616386413574</v>
+      </c>
+      <c r="G103" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H103" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I103" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J103" s="2" t="n">
+        <v>50.2921142578125</v>
+      </c>
+      <c r="K103" s="2" t="n">
+        <v>-26.53020477294922</v>
+      </c>
+      <c r="L103" s="2" t="n">
+        <v>1022.2263793945312</v>
+      </c>
+      <c r="M103" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N103" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O103" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="P103" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q103" s="2" t="n">
+        <v>19.95052719116211</v>
+      </c>
+      <c r="R103" s="2" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-23 03:00:00</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>0.1652892827987671</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>0.6545719504356384</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>2.630958318710327</v>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>2.472668409347534</v>
+      </c>
+      <c r="F104" s="2" t="n">
+        <v>2.463118076324463</v>
+      </c>
+      <c r="G104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J104" s="2" t="n">
+        <v>50.31816482543945</v>
+      </c>
+      <c r="K104" s="2" t="n">
+        <v>-26.012142181396484</v>
+      </c>
+      <c r="L104" s="2" t="n">
+        <v>1022.1419677734375</v>
+      </c>
+      <c r="M104" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N104" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O104" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P104" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="Q104" s="2" t="n">
+        <v>19.600034713745117</v>
+      </c>
+      <c r="R104" s="2" t="n">
+        <v>17.417999267578125</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-23 04:00:00</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>0.025514964014291763</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>0.5154579281806946</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>2.6423490047454834</v>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>2.505319118499756</v>
+      </c>
+      <c r="F105" s="2" t="n">
+        <v>2.5036978721618652</v>
+      </c>
+      <c r="G105" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H105" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I105" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J105" s="2" t="n">
+        <v>50.34191131591797</v>
+      </c>
+      <c r="K105" s="2" t="n">
+        <v>-25.4935302734375</v>
+      </c>
+      <c r="L105" s="2" t="n">
+        <v>1021.9551391601562</v>
+      </c>
+      <c r="M105" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N105" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O105" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="P105" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="Q105" s="2" t="n">
+        <v>19.74998664855957</v>
+      </c>
+      <c r="R105" s="2" t="n">
+        <v>17.600000381469727</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-23 05:00:00</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>0.06816262006759644</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>0.615664005279541</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>2.6665456295013428</v>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>2.5392329692840576</v>
+      </c>
+      <c r="F106" s="2" t="n">
+        <v>2.5253496170043945</v>
+      </c>
+      <c r="G106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J106" s="2" t="n">
+        <v>50.364013671875</v>
+      </c>
+      <c r="K106" s="2" t="n">
+        <v>-24.970096588134766</v>
+      </c>
+      <c r="L106" s="2" t="n">
+        <v>1021.768310546875</v>
+      </c>
+      <c r="M106" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N106" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="O106" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="P106" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q106" s="2" t="n">
+        <v>19.400604248046875</v>
+      </c>
+      <c r="R106" s="2" t="n">
+        <v>17.200000762939453</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-23 06:00:00</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>0.1108102798461914</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>0.5471908450126648</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>2.633514165878296</v>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>2.480832099914551</v>
+      </c>
+      <c r="F107" s="2" t="n">
+        <v>2.4907357692718506</v>
+      </c>
+      <c r="G107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J107" s="2" t="n">
+        <v>50.38355255126953</v>
+      </c>
+      <c r="K107" s="2" t="n">
+        <v>-24.44538116455078</v>
+      </c>
+      <c r="L107" s="2" t="n">
+        <v>1021.5814819335938</v>
+      </c>
+      <c r="M107" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N107" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O107" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="P107" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="Q107" s="2" t="n">
+        <v>19.69963264465332</v>
+      </c>
+      <c r="R107" s="2" t="n">
+        <v>17.200000762939453</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-23 07:00:00</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>0.15345793962478638</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>0.5518386960029602</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>2.6327996253967285</v>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>2.497271776199341</v>
+      </c>
+      <c r="F108" s="2" t="n">
+        <v>2.494884967803955</v>
+      </c>
+      <c r="G108" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H108" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I108" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J108" s="2" t="n">
+        <v>50.400455474853516</v>
+      </c>
+      <c r="K108" s="2" t="n">
+        <v>-23.918851852416992</v>
+      </c>
+      <c r="L108" s="2" t="n">
+        <v>1021.3946533203125</v>
+      </c>
+      <c r="M108" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N108" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O108" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="P108" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="Q108" s="2" t="n">
+        <v>19.520000457763672</v>
+      </c>
+      <c r="R108" s="2" t="n">
+        <v>17.493228912353516</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-23 08:00:00</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>0.19610559940338135</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>0.6145369410514832</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>2.695101022720337</v>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>2.4784982204437256</v>
+      </c>
+      <c r="F109" s="2" t="n">
+        <v>2.5261144638061523</v>
+      </c>
+      <c r="G109" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H109" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I109" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J109" s="2" t="n">
+        <v>50.414981842041016</v>
+      </c>
+      <c r="K109" s="2" t="n">
+        <v>-23.395418167114258</v>
+      </c>
+      <c r="L109" s="2" t="n">
+        <v>1021.2078247070312</v>
+      </c>
+      <c r="M109" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N109" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O109" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="P109" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="Q109" s="2" t="n">
+        <v>19.679807662963867</v>
+      </c>
+      <c r="R109" s="2" t="n">
+        <v>17.98748207092285</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-23 09:00:00</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>0.012922617606818676</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>0.42896193265914917</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>1.9326220750808716</v>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>1.9114729166030884</v>
+      </c>
+      <c r="F110" s="2" t="n">
+        <v>1.7474536895751953</v>
+      </c>
+      <c r="G110" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H110" s="2" t="n">
+        <v>3.7740001678466797</v>
+      </c>
+      <c r="I110" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J110" s="2" t="n">
+        <v>50.42723083496094</v>
+      </c>
+      <c r="K110" s="2" t="n">
+        <v>-22.871370315551758</v>
+      </c>
+      <c r="L110" s="2" t="n">
+        <v>1021.02099609375</v>
+      </c>
+      <c r="M110" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="N110" s="2" t="n">
+        <v>6.900000095367432</v>
+      </c>
+      <c r="O110" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P110" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q110" s="2" t="n">
+        <v>19.974641799926758</v>
+      </c>
+      <c r="R110" s="2" t="n">
+        <v>18.762195587158203</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-23 10:00:00</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>0.03206964209675789</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>0.013919851742684841</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>2.8258180618286133</v>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>2.6858720779418945</v>
+      </c>
+      <c r="F111" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G111" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H111" s="2" t="n">
+        <v>4.998000144958496</v>
+      </c>
+      <c r="I111" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J111" s="2" t="n">
+        <v>50.437564849853516</v>
+      </c>
+      <c r="K111" s="2" t="n">
+        <v>-22.326862335205078</v>
+      </c>
+      <c r="L111" s="2" t="n">
+        <v>1020.8341674804688</v>
+      </c>
+      <c r="M111" s="2" t="n">
+        <v>8.199999809265137</v>
+      </c>
+      <c r="N111" s="2" t="n">
+        <v>8.199999809265137</v>
+      </c>
+      <c r="O111" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="P111" s="2" t="n">
+        <v>7.700000286102295</v>
+      </c>
+      <c r="Q111" s="2" t="n">
+        <v>20.99970054626465</v>
+      </c>
+      <c r="R111" s="2" t="n">
+        <v>19.42674446105957</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-23 11:00:00</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>0.05121666565537453</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>0.03017004020512104</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>2.8007402420043945</v>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>2.669898509979248</v>
+      </c>
+      <c r="F112" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G112" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H112" s="2" t="n">
+        <v>4.885800361633301</v>
+      </c>
+      <c r="I112" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J112" s="2" t="n">
+        <v>50.44544219970703</v>
+      </c>
+      <c r="K112" s="2" t="n">
+        <v>-21.76243019104004</v>
+      </c>
+      <c r="L112" s="2" t="n">
+        <v>1020.6473999023438</v>
+      </c>
+      <c r="M112" s="2" t="n">
+        <v>8.100000381469727</v>
+      </c>
+      <c r="N112" s="2" t="n">
+        <v>8.100000381469727</v>
+      </c>
+      <c r="O112" s="2" t="n">
+        <v>7.599999904632568</v>
+      </c>
+      <c r="P112" s="2" t="n">
+        <v>7.700000286102295</v>
+      </c>
+      <c r="Q112" s="2" t="n">
+        <v>21.299196243286133</v>
+      </c>
+      <c r="R112" s="2" t="n">
+        <v>21.50920295715332</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-23 12:00:00</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>0.07036368548870087</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>0.046420227736234665</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>2.8047964572906494</v>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>2.681410312652588</v>
+      </c>
+      <c r="F113" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G113" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H113" s="2" t="n">
+        <v>4.890900135040283</v>
+      </c>
+      <c r="I113" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J113" s="2" t="n">
+        <v>50.45063400268555</v>
+      </c>
+      <c r="K113" s="2" t="n">
+        <v>-21.194198608398438</v>
+      </c>
+      <c r="L113" s="2" t="n">
+        <v>1020.4605712890625</v>
+      </c>
+      <c r="M113" s="2" t="n">
+        <v>8.100000381469727</v>
+      </c>
+      <c r="N113" s="2" t="n">
+        <v>8.40000057220459</v>
+      </c>
+      <c r="O113" s="2" t="n">
+        <v>7.700000286102295</v>
+      </c>
+      <c r="P113" s="2" t="n">
+        <v>7.700000286102295</v>
+      </c>
+      <c r="Q113" s="2" t="n">
+        <v>21.899198532104492</v>
+      </c>
+      <c r="R113" s="2" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-23 13:00:00</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>0.0895107090473175</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>0.06267041712999344</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>2.81799054145813</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>2.677595376968384</v>
+      </c>
+      <c r="F114" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G114" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H114" s="2" t="n">
+        <v>4.753200531005859</v>
+      </c>
+      <c r="I114" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J114" s="2" t="n">
+        <v>50.45319747924805</v>
+      </c>
+      <c r="K114" s="2" t="n">
+        <v>-20.62535858154297</v>
+      </c>
+      <c r="L114" s="2" t="n">
+        <v>1020.2737426757812</v>
+      </c>
+      <c r="M114" s="2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N114" s="2" t="n">
+        <v>8.100000381469727</v>
+      </c>
+      <c r="O114" s="2" t="n">
+        <v>7.599999904632568</v>
+      </c>
+      <c r="P114" s="2" t="n">
+        <v>7.700000286102295</v>
+      </c>
+      <c r="Q114" s="2" t="n">
+        <v>20.951129913330078</v>
+      </c>
+      <c r="R114" s="2" t="n">
+        <v>20.67318344116211</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-23 14:00:00</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>0.10865773260593414</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>0.07892060279846191</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>2.80849289894104</v>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>2.677395820617676</v>
+      </c>
+      <c r="F115" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G115" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H115" s="2" t="n">
+        <v>4.855200290679932</v>
+      </c>
+      <c r="I115" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J115" s="2" t="n">
+        <v>50.45271682739258</v>
+      </c>
+      <c r="K115" s="2" t="n">
+        <v>-20.058940887451172</v>
+      </c>
+      <c r="L115" s="2" t="n">
+        <v>1020.0869140625</v>
+      </c>
+      <c r="M115" s="2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N115" s="2" t="n">
+        <v>8.199999809265137</v>
+      </c>
+      <c r="O115" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="P115" s="2" t="n">
+        <v>7.700000286102295</v>
+      </c>
+      <c r="Q115" s="2" t="n">
+        <v>21.30080223083496</v>
+      </c>
+      <c r="R115" s="2" t="n">
+        <v>22.695785522460938</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-23 15:00:00</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>0.12780475616455078</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>0.09517078846693039</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>2.8085498809814453</v>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>2.669827699661255</v>
+      </c>
+      <c r="F116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H116" s="2" t="n">
+        <v>4.78380012512207</v>
+      </c>
+      <c r="I116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J116" s="2" t="n">
+        <v>50.44967269897461</v>
+      </c>
+      <c r="K116" s="2" t="n">
+        <v>-19.495235443115234</v>
+      </c>
+      <c r="L116" s="2" t="n">
+        <v>1019.9000854492188</v>
+      </c>
+      <c r="M116" s="2" t="n">
+        <v>7.900000095367432</v>
+      </c>
+      <c r="N116" s="2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O116" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="P116" s="2" t="n">
+        <v>7.599999904632568</v>
+      </c>
+      <c r="Q116" s="2" t="n">
+        <v>21.299999237060547</v>
+      </c>
+      <c r="R116" s="2" t="n">
+        <v>21.074636459350586</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-23 16:00:00</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>0.14695177972316742</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>0.11142097413539886</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>2.8168084621429443</v>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>2.6638689041137695</v>
+      </c>
+      <c r="F117" s="2" t="n">
+        <v>2.6485326290130615</v>
+      </c>
+      <c r="G117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H117" s="2" t="n">
+        <v>3.4476001262664795</v>
+      </c>
+      <c r="I117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J117" s="2" t="n">
+        <v>50.44375991821289</v>
+      </c>
+      <c r="K117" s="2" t="n">
+        <v>-18.929046630859375</v>
+      </c>
+      <c r="L117" s="2" t="n">
+        <v>1019.7132568359375</v>
+      </c>
+      <c r="M117" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="N117" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="O117" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P117" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q117" s="2" t="n">
+        <v>22.219919204711914</v>
+      </c>
+      <c r="R117" s="2" t="n">
+        <v>22.356733322143555</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-23 17:00:00</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>0.16609880328178406</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>0.12767116725444794</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>2.770747423171997</v>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>2.659130096435547</v>
+      </c>
+      <c r="F118" s="2" t="n">
+        <v>2.6227667331695557</v>
+      </c>
+      <c r="G118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H118" s="2" t="n">
+        <v>4.268700122833252</v>
+      </c>
+      <c r="I118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J118" s="2" t="n">
+        <v>50.434261322021484</v>
+      </c>
+      <c r="K118" s="2" t="n">
+        <v>-18.313444137573242</v>
+      </c>
+      <c r="L118" s="2" t="n">
+        <v>1019.5264282226562</v>
+      </c>
+      <c r="M118" s="2" t="n">
+        <v>11.800000190734863</v>
+      </c>
+      <c r="N118" s="2" t="n">
+        <v>11.600000381469727</v>
+      </c>
+      <c r="O118" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="P118" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q118" s="2" t="n">
+        <v>23.100801467895508</v>
+      </c>
+      <c r="R118" s="2" t="n">
+        <v>19.86883544921875</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-23 18:00:00</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>0.2815738320350647</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>0.14392134547233582</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>2.804065704345703</v>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>2.66530179977417</v>
+      </c>
+      <c r="F119" s="2" t="n">
+        <v>2.639090061187744</v>
+      </c>
+      <c r="G119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H119" s="2" t="n">
+        <v>4.273799896240234</v>
+      </c>
+      <c r="I119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J119" s="2" t="n">
+        <v>50.421443939208984</v>
+      </c>
+      <c r="K119" s="2" t="n">
+        <v>-17.69259262084961</v>
+      </c>
+      <c r="L119" s="2" t="n">
+        <v>1019.339599609375</v>
+      </c>
+      <c r="M119" s="2" t="n">
+        <v>11.699999809265137</v>
+      </c>
+      <c r="N119" s="2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O119" s="2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="P119" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q119" s="2" t="n">
+        <v>23.233600616455078</v>
+      </c>
+      <c r="R119" s="2" t="n">
+        <v>22.349355697631836</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-23 19:00:00</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>0.054841477423906326</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>0.1601715385913849</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>2.7983081340789795</v>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>2.66984224319458</v>
+      </c>
+      <c r="F120" s="2" t="n">
+        <v>2.6636548042297363</v>
+      </c>
+      <c r="G120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H120" s="2" t="n">
+        <v>4.5084004402160645</v>
+      </c>
+      <c r="I120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J120" s="2" t="n">
+        <v>50.40538787841797</v>
+      </c>
+      <c r="K120" s="2" t="n">
+        <v>-17.079362869262695</v>
+      </c>
+      <c r="L120" s="2" t="n">
+        <v>1019.1527709960938</v>
+      </c>
+      <c r="M120" s="2" t="n">
+        <v>11.800000190734863</v>
+      </c>
+      <c r="N120" s="2" t="n">
+        <v>11.699999809265137</v>
+      </c>
+      <c r="O120" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P120" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q120" s="2" t="n">
+        <v>22.233489990234375</v>
+      </c>
+      <c r="R120" s="2" t="n">
+        <v>18.01154327392578</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-23 20:00:00</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>0.11667799204587936</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>0.17642173171043396</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>2.7840747833251953</v>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>2.679328203201294</v>
+      </c>
+      <c r="F121" s="2" t="n">
+        <v>2.6595826148986816</v>
+      </c>
+      <c r="G121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H121" s="2" t="n">
+        <v>4.513499736785889</v>
+      </c>
+      <c r="I121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J121" s="2" t="n">
+        <v>50.38651657104492</v>
+      </c>
+      <c r="K121" s="2" t="n">
+        <v>-16.473745346069336</v>
+      </c>
+      <c r="L121" s="2" t="n">
+        <v>1018.9660034179688</v>
+      </c>
+      <c r="M121" s="2" t="n">
+        <v>11.800000190734863</v>
+      </c>
+      <c r="N121" s="2" t="n">
+        <v>11.90000057220459</v>
+      </c>
+      <c r="O121" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="P121" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q121" s="2" t="n">
+        <v>23.550100326538086</v>
+      </c>
+      <c r="R121" s="2" t="n">
+        <v>20.976486206054688</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-23 21:00:00</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>0.1785144954919815</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>0.19267190992832184</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>2.754065990447998</v>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>2.6657559871673584</v>
+      </c>
+      <c r="F122" s="2" t="n">
+        <v>2.6449666023254395</v>
+      </c>
+      <c r="G122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H122" s="2" t="n">
+        <v>4.533900260925293</v>
+      </c>
+      <c r="I122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J122" s="2" t="n">
+        <v>50.364444732666016</v>
+      </c>
+      <c r="K122" s="2" t="n">
+        <v>-15.867135047912598</v>
+      </c>
+      <c r="L122" s="2" t="n">
+        <v>1018.7791748046875</v>
+      </c>
+      <c r="M122" s="2" t="n">
+        <v>11.600000381469727</v>
+      </c>
+      <c r="N122" s="2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="O122" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="P122" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q122" s="2" t="n">
+        <v>22.59983253479004</v>
+      </c>
+      <c r="R122" s="2" t="n">
+        <v>19.98863983154297</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-23 22:00:00</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>0.026786983013153076</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>0.2089221030473709</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>2.7825140953063965</v>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>2.6840178966522217</v>
+      </c>
+      <c r="F123" s="2" t="n">
+        <v>2.6514289379119873</v>
+      </c>
+      <c r="G123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H123" s="2" t="n">
+        <v>4.360500335693359</v>
+      </c>
+      <c r="I123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J123" s="2" t="n">
+        <v>50.33903121948242</v>
+      </c>
+      <c r="K123" s="2" t="n">
+        <v>-15.258152961730957</v>
+      </c>
+      <c r="L123" s="2" t="n">
+        <v>1018.5923461914062</v>
+      </c>
+      <c r="M123" s="2" t="n">
+        <v>11.699999809265137</v>
+      </c>
+      <c r="N123" s="2" t="n">
+        <v>11.90000057220459</v>
+      </c>
+      <c r="O123" s="2" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="P123" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q123" s="2" t="n">
+        <v>23.159879684448242</v>
+      </c>
+      <c r="R123" s="2" t="n">
+        <v>18.701763153076172</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-23 23:00:00</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>0.08059363067150116</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>0.22517229616641998</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>2.7659707069396973</v>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>2.6598711013793945</v>
+      </c>
+      <c r="F124" s="2" t="n">
+        <v>2.645009994506836</v>
+      </c>
+      <c r="G124" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H124" s="2" t="n">
+        <v>4.294200420379639</v>
+      </c>
+      <c r="I124" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J124" s="2" t="n">
+        <v>50.31033706665039</v>
+      </c>
+      <c r="K124" s="2" t="n">
+        <v>-14.652009963989258</v>
+      </c>
+      <c r="L124" s="2" t="n">
+        <v>1018.405517578125</v>
+      </c>
+      <c r="M124" s="2" t="n">
+        <v>11.800000190734863</v>
+      </c>
+      <c r="N124" s="2" t="n">
+        <v>11.90000057220459</v>
+      </c>
+      <c r="O124" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="P124" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="Q124" s="2" t="n">
+        <v>23.59969711303711</v>
+      </c>
+      <c r="R124" s="2" t="n">
+        <v>19.938404083251953</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>0.13440027832984924</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>0.24142247438430786</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>2.777536392211914</v>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>2.6789379119873047</v>
+      </c>
+      <c r="F125" s="2" t="n">
+        <v>2.667721748352051</v>
+      </c>
+      <c r="G125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H125" s="2" t="n">
+        <v>4.340100288391113</v>
+      </c>
+      <c r="I125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J125" s="2" t="n">
+        <v>50.27872085571289</v>
+      </c>
+      <c r="K125" s="2" t="n">
+        <v>-14.047768592834473</v>
+      </c>
+      <c r="L125" s="2" t="n">
+        <v>1018.2186889648438</v>
+      </c>
+      <c r="M125" s="2" t="n">
+        <v>11.800000190734863</v>
+      </c>
+      <c r="N125" s="2" t="n">
+        <v>12.199999809265137</v>
+      </c>
+      <c r="O125" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P125" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q125" s="2" t="n">
+        <v>22.899999618530273</v>
+      </c>
+      <c r="R125" s="2" t="n">
+        <v>19.85788917541504</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-24 01:00:00</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>0.18820692598819733</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>0.1833893358707428</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>2.65020489692688</v>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>2.505316734313965</v>
+      </c>
+      <c r="F126" s="2" t="n">
+        <v>2.4998042583465576</v>
+      </c>
+      <c r="G126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H126" s="2" t="n">
+        <v>0.8058000206947327</v>
+      </c>
+      <c r="I126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J126" s="2" t="n">
+        <v>50.24437713623047</v>
+      </c>
+      <c r="K126" s="2" t="n">
+        <v>-13.45111083984375</v>
+      </c>
+      <c r="L126" s="2" t="n">
+        <v>1018.0318603515625</v>
+      </c>
+      <c r="M126" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="N126" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O126" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="P126" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="Q126" s="2" t="n">
+        <v>19.249473571777344</v>
+      </c>
+      <c r="R126" s="2" t="n">
+        <v>20.165863037109375</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-24 02:00:00</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>0.02225482277572155</v>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>0.4242081940174103</v>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>2.7578296661376953</v>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>2.597503423690796</v>
+      </c>
+      <c r="F127" s="2" t="n">
+        <v>2.629629373550415</v>
+      </c>
+      <c r="G127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J127" s="2" t="n">
+        <v>50.211326599121094</v>
+      </c>
+      <c r="K127" s="2" t="n">
+        <v>-12.922911643981934</v>
+      </c>
+      <c r="L127" s="2" t="n">
+        <v>1017.8450317382812</v>
+      </c>
+      <c r="M127" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="N127" s="2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O127" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="P127" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q127" s="2" t="n">
+        <v>20.499771118164062</v>
+      </c>
+      <c r="R127" s="2" t="n">
+        <v>19.3164005279541</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-24 03:00:00</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>0.061353858560323715</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>0.4114665687084198</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>2.725820302963257</v>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>2.5460293292999268</v>
+      </c>
+      <c r="F128" s="2" t="n">
+        <v>2.584733724594116</v>
+      </c>
+      <c r="G128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J128" s="2" t="n">
+        <v>50.17516326904297</v>
+      </c>
+      <c r="K128" s="2" t="n">
+        <v>-12.384334564208984</v>
+      </c>
+      <c r="L128" s="2" t="n">
+        <v>1017.5389404296875</v>
+      </c>
+      <c r="M128" s="2" t="n">
+        <v>6.900000095367432</v>
+      </c>
+      <c r="N128" s="2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O128" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="P128" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q128" s="2" t="n">
+        <v>19.700334548950195</v>
+      </c>
+      <c r="R128" s="2" t="n">
+        <v>19.365131378173828</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-24 04:00:00</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>0.10045289993286133</v>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>0.5172977447509766</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>2.7554900646209717</v>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>2.5933921337127686</v>
+      </c>
+      <c r="F129" s="2" t="n">
+        <v>2.628715753555298</v>
+      </c>
+      <c r="G129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J129" s="2" t="n">
+        <v>50.13750076293945</v>
+      </c>
+      <c r="K129" s="2" t="n">
+        <v>-11.858470916748047</v>
+      </c>
+      <c r="L129" s="2" t="n">
+        <v>1017.1949462890625</v>
+      </c>
+      <c r="M129" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="N129" s="2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O129" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P129" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q129" s="2" t="n">
+        <v>19.65019989013672</v>
+      </c>
+      <c r="R129" s="2" t="n">
+        <v>19.16160011291504</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-24 05:00:00</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>0.13955193758010864</v>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>0.41750770807266235</v>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>2.753411054611206</v>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>2.5915565490722656</v>
+      </c>
+      <c r="F130" s="2" t="n">
+        <v>2.626235246658325</v>
+      </c>
+      <c r="G130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J130" s="2" t="n">
+        <v>50.09793472290039</v>
+      </c>
+      <c r="K130" s="2" t="n">
+        <v>-11.340734481811523</v>
+      </c>
+      <c r="L130" s="2" t="n">
+        <v>1016.8510131835938</v>
+      </c>
+      <c r="M130" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="N130" s="2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O130" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P130" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q130" s="2" t="n">
+        <v>20.8665771484375</v>
+      </c>
+      <c r="R130" s="2" t="n">
+        <v>19.183462142944336</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-24 06:00:00</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>0.17865097522735596</v>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>0.4807468056678772</v>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>2.7250399589538574</v>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>2.5432467460632324</v>
+      </c>
+      <c r="F131" s="2" t="n">
+        <v>2.5910286903381348</v>
+      </c>
+      <c r="G131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J131" s="2" t="n">
+        <v>50.055198669433594</v>
+      </c>
+      <c r="K131" s="2" t="n">
+        <v>-10.815081596374512</v>
+      </c>
+      <c r="L131" s="2" t="n">
+        <v>1016.5070190429688</v>
+      </c>
+      <c r="M131" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N131" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="O131" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P131" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q131" s="2" t="n">
+        <v>20.09954833984375</v>
+      </c>
+      <c r="R131" s="2" t="n">
+        <v>19.115903854370117</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-24 07:00:00</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>0.006300677545368671</v>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>0.4878213405609131</v>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>2.844942092895508</v>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>2.672565460205078</v>
+      </c>
+      <c r="F132" s="2" t="n">
+        <v>2.6622164249420166</v>
+      </c>
+      <c r="G132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J132" s="2" t="n">
+        <v>50.01018142700195</v>
+      </c>
+      <c r="K132" s="2" t="n">
+        <v>-10.29101848602295</v>
+      </c>
+      <c r="L132" s="2" t="n">
+        <v>1016.1630249023438</v>
+      </c>
+      <c r="M132" s="2" t="n">
+        <v>6.900000095367432</v>
+      </c>
+      <c r="N132" s="2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O132" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="P132" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q132" s="2" t="n">
+        <v>20.04982566833496</v>
+      </c>
+      <c r="R132" s="2" t="n">
+        <v>18.629894256591797</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>0.027604134753346443</v>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>0.42743557691574097</v>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>2.7361690998077393</v>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>2.5781538486480713</v>
+      </c>
+      <c r="F133" s="2" t="n">
+        <v>2.592296838760376</v>
+      </c>
+      <c r="G133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J133" s="2" t="n">
+        <v>49.9622802734375</v>
+      </c>
+      <c r="K133" s="2" t="n">
+        <v>-9.762676239013672</v>
+      </c>
+      <c r="L133" s="2" t="n">
+        <v>1015.819091796875</v>
+      </c>
+      <c r="M133" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N133" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O133" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P133" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q133" s="2" t="n">
+        <v>20.399700164794922</v>
+      </c>
+      <c r="R133" s="2" t="n">
+        <v>19.17242431640625</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-24 09:00:00</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>0.04890759289264679</v>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>0.4834650456905365</v>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>2.7584049701690674</v>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>2.62125563621521</v>
+      </c>
+      <c r="F134" s="2" t="n">
+        <v>2.627000331878662</v>
+      </c>
+      <c r="G134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J134" s="2" t="n">
+        <v>49.912296295166016</v>
+      </c>
+      <c r="K134" s="2" t="n">
+        <v>-9.236366271972656</v>
+      </c>
+      <c r="L134" s="2" t="n">
+        <v>1015.47509765625</v>
+      </c>
+      <c r="M134" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N134" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O134" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P134" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q134" s="2" t="n">
+        <v>19.79939842224121</v>
+      </c>
+      <c r="R134" s="2" t="n">
+        <v>19.966806411743164</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-24 10:00:00</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>0.07021105289459229</v>
+      </c>
+      <c r="C135" s="2" t="n">
+        <v>0.4520896375179291</v>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>2.764242172241211</v>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>2.6190545558929443</v>
+      </c>
+      <c r="F135" s="2" t="n">
+        <v>2.614089250564575</v>
+      </c>
+      <c r="G135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J135" s="2" t="n">
+        <v>49.85948181152344</v>
+      </c>
+      <c r="K135" s="2" t="n">
+        <v>-8.707953453063965</v>
+      </c>
+      <c r="L135" s="2" t="n">
+        <v>1015.1311645507812</v>
+      </c>
+      <c r="M135" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N135" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O135" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P135" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="Q135" s="2" t="n">
+        <v>19.333065032958984</v>
+      </c>
+      <c r="R135" s="2" t="n">
+        <v>22.299999237060547</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-24 11:00:00</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>0.09151450544595718</v>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>0.4265948534011841</v>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>2.80790638923645</v>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>2.634216070175171</v>
+      </c>
+      <c r="F136" s="2" t="n">
+        <v>2.6271159648895264</v>
+      </c>
+      <c r="G136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J136" s="2" t="n">
+        <v>49.77454376220703</v>
+      </c>
+      <c r="K136" s="2" t="n">
+        <v>-8.195212364196777</v>
+      </c>
+      <c r="L136" s="2" t="n">
+        <v>1014.7871704101562</v>
+      </c>
+      <c r="M136" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="N136" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O136" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P136" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q136" s="2" t="n">
+        <v>20.233043670654297</v>
+      </c>
+      <c r="R136" s="2" t="n">
+        <v>22.40101432800293</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-24 12:00:00</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>0.11281796544790268</v>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>0.5270838737487793</v>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>2.7944257259368896</v>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>2.638259172439575</v>
+      </c>
+      <c r="F137" s="2" t="n">
+        <v>2.631455898284912</v>
+      </c>
+      <c r="G137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J137" s="2" t="n">
+        <v>49.72659683227539</v>
+      </c>
+      <c r="K137" s="2" t="n">
+        <v>-7.676560401916504</v>
+      </c>
+      <c r="L137" s="2" t="n">
+        <v>1014.4431762695312</v>
+      </c>
+      <c r="M137" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N137" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O137" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P137" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q137" s="2" t="n">
+        <v>19.500202178955078</v>
+      </c>
+      <c r="R137" s="2" t="n">
+        <v>21.886110305786133</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-24 13:00:00</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>0.13412141799926758</v>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>0.550140917301178</v>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>2.7694122791290283</v>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>2.608490228652954</v>
+      </c>
+      <c r="F138" s="2" t="n">
+        <v>2.6242430210113525</v>
+      </c>
+      <c r="G138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J138" s="2" t="n">
+        <v>49.67366409301758</v>
+      </c>
+      <c r="K138" s="2" t="n">
+        <v>-7.16135311126709</v>
+      </c>
+      <c r="L138" s="2" t="n">
+        <v>1014.0992431640625</v>
+      </c>
+      <c r="M138" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N138" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O138" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P138" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q138" s="2" t="n">
+        <v>19.900066375732422</v>
+      </c>
+      <c r="R138" s="2" t="n">
+        <v>22.88850212097168</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-24 14:00:00</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>0.15542487800121307</v>
+      </c>
+      <c r="C139" s="2" t="n">
+        <v>0.5233384370803833</v>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>2.773240327835083</v>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>2.6503894329071045</v>
+      </c>
+      <c r="F139" s="2" t="n">
+        <v>2.6404929161071777</v>
+      </c>
+      <c r="G139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J139" s="2" t="n">
+        <v>49.63582992553711</v>
+      </c>
+      <c r="K139" s="2" t="n">
+        <v>-6.656673431396484</v>
+      </c>
+      <c r="L139" s="2" t="n">
+        <v>1013.7552490234375</v>
+      </c>
+      <c r="M139" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N139" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="O139" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P139" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q139" s="2" t="n">
+        <v>19.59919548034668</v>
+      </c>
+      <c r="R139" s="2" t="n">
+        <v>21.82244873046875</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-24 15:00:00</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>0.17672833800315857</v>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>0.4320451617240906</v>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>2.7493700981140137</v>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>2.6038382053375244</v>
+      </c>
+      <c r="F140" s="2" t="n">
+        <v>2.6145570278167725</v>
+      </c>
+      <c r="G140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J140" s="2" t="n">
+        <v>49.63370895385742</v>
+      </c>
+      <c r="K140" s="2" t="n">
+        <v>-6.147924423217773</v>
+      </c>
+      <c r="L140" s="2" t="n">
+        <v>1013.4113159179688</v>
+      </c>
+      <c r="M140" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N140" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O140" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P140" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q140" s="2" t="n">
+        <v>19.599699020385742</v>
+      </c>
+      <c r="R140" s="2" t="n">
+        <v>21.299999237060547</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-24 16:00:00</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>0.19803179800510406</v>
+      </c>
+      <c r="C141" s="2" t="n">
+        <v>0.4421100914478302</v>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>2.7742843627929688</v>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>2.622995376586914</v>
+      </c>
+      <c r="F141" s="2" t="n">
+        <v>2.644843816757202</v>
+      </c>
+      <c r="G141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J141" s="2" t="n">
+        <v>49.71699905395508</v>
+      </c>
+      <c r="K141" s="2" t="n">
+        <v>-5.652143955230713</v>
+      </c>
+      <c r="L141" s="2" t="n">
+        <v>1013.0673217773438</v>
+      </c>
+      <c r="M141" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N141" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O141" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="P141" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q141" s="2" t="n">
+        <v>20.08030128479004</v>
+      </c>
+      <c r="R141" s="2" t="n">
+        <v>21.31778335571289</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-24 17:00:00</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>0.02488364651799202</v>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>0.483329713344574</v>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>2.7635605335235596</v>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>2.6002869606018066</v>
+      </c>
+      <c r="F142" s="2" t="n">
+        <v>2.621506690979004</v>
+      </c>
+      <c r="G142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J142" s="2" t="n">
+        <v>49.80860900878906</v>
+      </c>
+      <c r="K142" s="2" t="n">
+        <v>-5.152854919433594</v>
+      </c>
+      <c r="L142" s="2" t="n">
+        <v>1012.723388671875</v>
+      </c>
+      <c r="M142" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N142" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O142" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P142" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="Q142" s="2" t="n">
+        <v>19.966890335083008</v>
+      </c>
+      <c r="R142" s="2" t="n">
+        <v>21.476865768432617</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-24 18:00:00</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>0.07842817902565002</v>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>0.37910112738609314</v>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>2.7709012031555176</v>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>2.625965118408203</v>
+      </c>
+      <c r="F143" s="2" t="n">
+        <v>2.630213975906372</v>
+      </c>
+      <c r="G143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J143" s="2" t="n">
+        <v>49.89099884033203</v>
+      </c>
+      <c r="K143" s="2" t="n">
+        <v>-4.644859313964844</v>
+      </c>
+      <c r="L143" s="2" t="n">
+        <v>1012.37939453125</v>
+      </c>
+      <c r="M143" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="N143" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O143" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P143" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q143" s="2" t="n">
+        <v>20.555545806884766</v>
+      </c>
+      <c r="R143" s="2" t="n">
+        <v>21.221118927001953</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-24 19:00:00</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>0.13197270035743713</v>
+      </c>
+      <c r="C144" s="2" t="n">
+        <v>0.46781760454177856</v>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>2.774625778198242</v>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>2.6329288482666016</v>
+      </c>
+      <c r="F144" s="2" t="n">
+        <v>2.6244707107543945</v>
+      </c>
+      <c r="G144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J144" s="2" t="n">
+        <v>49.99217224121094</v>
+      </c>
+      <c r="K144" s="2" t="n">
+        <v>-4.141595840454102</v>
+      </c>
+      <c r="L144" s="2" t="n">
+        <v>1012.035400390625</v>
+      </c>
+      <c r="M144" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N144" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O144" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P144" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q144" s="2" t="n">
+        <v>19.76594352722168</v>
+      </c>
+      <c r="R144" s="2" t="n">
+        <v>20.20591926574707</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-24 20:00:00</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>0.18551723659038544</v>
+      </c>
+      <c r="C145" s="2" t="n">
+        <v>0.6211434602737427</v>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>2.777538537979126</v>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>2.6273233890533447</v>
+      </c>
+      <c r="F145" s="2" t="n">
+        <v>2.6294052600860596</v>
+      </c>
+      <c r="G145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J145" s="2" t="n">
+        <v>50.08340835571289</v>
+      </c>
+      <c r="K145" s="2" t="n">
+        <v>-3.6388206481933594</v>
+      </c>
+      <c r="L145" s="2" t="n">
+        <v>1011.6914672851562</v>
+      </c>
+      <c r="M145" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N145" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O145" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P145" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q145" s="2" t="n">
+        <v>20.187522888183594</v>
+      </c>
+      <c r="R145" s="2" t="n">
+        <v>19.529531478881836</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-24 21:00:00</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>0.07100345939397812</v>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>0.5721893906593323</v>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>2.759010076522827</v>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>2.607186794281006</v>
+      </c>
+      <c r="F146" s="2" t="n">
+        <v>2.6144187450408936</v>
+      </c>
+      <c r="G146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J146" s="2" t="n">
+        <v>50.16690444946289</v>
+      </c>
+      <c r="K146" s="2" t="n">
+        <v>-3.1303443908691406</v>
+      </c>
+      <c r="L146" s="2" t="n">
+        <v>1011.3474731445312</v>
+      </c>
+      <c r="M146" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N146" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O146" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P146" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q146" s="2" t="n">
+        <v>19.82559585571289</v>
+      </c>
+      <c r="R146" s="2" t="n">
+        <v>19.486845016479492</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-24 22:00:00</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>0.40572595596313477</v>
+      </c>
+      <c r="C147" s="2" t="n">
+        <v>0.5531280636787415</v>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>2.7341957092285156</v>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>2.581541061401367</v>
+      </c>
+      <c r="F147" s="2" t="n">
+        <v>2.5861899852752686</v>
+      </c>
+      <c r="G147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J147" s="2" t="n">
+        <v>50.25148010253906</v>
+      </c>
+      <c r="K147" s="2" t="n">
+        <v>-2.6131105422973633</v>
+      </c>
+      <c r="L147" s="2" t="n">
+        <v>1011.0035400390625</v>
+      </c>
+      <c r="M147" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="N147" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O147" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P147" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="Q147" s="2" t="n">
+        <v>20.17506980895996</v>
+      </c>
+      <c r="R147" s="2" t="n">
+        <v>19.435014724731445</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-24 23:00:00</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>0.11450978368520737</v>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>0.3148987293243408</v>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>1.624467134475708</v>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>1.627347469329834</v>
+      </c>
+      <c r="F148" s="2" t="n">
+        <v>1.5347334146499634</v>
+      </c>
+      <c r="G148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J148" s="2" t="n">
+        <v>50.33537673950195</v>
+      </c>
+      <c r="K148" s="2" t="n">
+        <v>-2.14845871925354</v>
+      </c>
+      <c r="L148" s="2" t="n">
+        <v>1010.6595458984375</v>
+      </c>
+      <c r="M148" s="2" t="n">
+        <v>3.1000001430511475</v>
+      </c>
+      <c r="N148" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O148" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P148" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q148" s="2" t="n">
+        <v>15.700404167175293</v>
+      </c>
+      <c r="R148" s="2" t="n">
+        <v>19.3831844329834</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-25 00:00:00</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>0.008832361549139023</v>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>0.2962394654750824</v>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>1.885338544845581</v>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>1.7994734048843384</v>
+      </c>
+      <c r="F149" s="2" t="n">
+        <v>1.875025749206543</v>
+      </c>
+      <c r="G149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J149" s="2" t="n">
+        <v>50.409854888916016</v>
+      </c>
+      <c r="K149" s="2" t="n">
+        <v>-1.681536316871643</v>
+      </c>
+      <c r="L149" s="2" t="n">
+        <v>1010.3156127929688</v>
+      </c>
+      <c r="M149" s="2" t="n">
+        <v>4.200000286102295</v>
+      </c>
+      <c r="N149" s="2" t="n">
+        <v>4.099999904632568</v>
+      </c>
+      <c r="O149" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P149" s="2" t="n">
+        <v>4.099999904632568</v>
+      </c>
+      <c r="Q149" s="2" t="n">
+        <v>17.100500106811523</v>
+      </c>
+      <c r="R149" s="2" t="n">
+        <v>19.33135223388672</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-25 01:00:00</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>0.06355471163988113</v>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>0.34590476751327515</v>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>1.6805338859558105</v>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>1.6465814113616943</v>
+      </c>
+      <c r="F150" s="2" t="n">
+        <v>1.6100062131881714</v>
+      </c>
+      <c r="G150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J150" s="2" t="n">
+        <v>50.487117767333984</v>
+      </c>
+      <c r="K150" s="2" t="n">
+        <v>-1.1959539651870728</v>
+      </c>
+      <c r="L150" s="2" t="n">
+        <v>1010.1712646484375</v>
+      </c>
+      <c r="M150" s="2" t="n">
+        <v>3.4000000953674316</v>
+      </c>
+      <c r="N150" s="2" t="n">
+        <v>3.4000000953674316</v>
+      </c>
+      <c r="O150" s="2" t="n">
+        <v>3.299999952316284</v>
+      </c>
+      <c r="P150" s="2" t="n">
+        <v>3.299999952316284</v>
+      </c>
+      <c r="Q150" s="2" t="n">
+        <v>15.800000190734863</v>
+      </c>
+      <c r="R150" s="2" t="n">
+        <v>19.197471618652344</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-25 02:00:00</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>0.11827706545591354</v>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>0.4527667462825775</v>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>1.1034798622131348</v>
+      </c>
+      <c r="F151" s="2" t="n">
+        <v>1.112960696220398</v>
+      </c>
+      <c r="G151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J151" s="2" t="n">
+        <v>50.54373550415039</v>
+      </c>
+      <c r="K151" s="2" t="n">
+        <v>-0.9788575172424316</v>
+      </c>
+      <c r="L151" s="2" t="n">
+        <v>1010.1278686523438</v>
+      </c>
+      <c r="M151" s="2" t="n">
+        <v>0.4000000059604645</v>
+      </c>
+      <c r="N151" s="2" t="n">
+        <v>0.4000000059604645</v>
+      </c>
+      <c r="O151" s="2" t="n">
+        <v>0.4000000059604645</v>
+      </c>
+      <c r="P151" s="2" t="n">
+        <v>0.4000000059604645</v>
+      </c>
+      <c r="Q151" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="R151" s="2" t="n">
+        <v>19.08643341064453</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-25 03:00:00</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>0.17299941182136536</v>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>0.38446345925331116</v>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>1.0815824270248413</v>
+      </c>
+      <c r="F152" s="2" t="n">
+        <v>1.0595667362213135</v>
+      </c>
+      <c r="G152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H152" s="2" t="n">
+        <v>2.422499895095825</v>
+      </c>
+      <c r="I152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J152" s="2" t="n">
+        <v>50.68408203125</v>
+      </c>
+      <c r="K152" s="2" t="n">
+        <v>-0.9659507274627686</v>
+      </c>
+      <c r="L152" s="2" t="n">
+        <v>1010.08447265625</v>
+      </c>
+      <c r="M152" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N152" s="2" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="O152" s="2" t="n">
+        <v>1.7000000476837158</v>
+      </c>
+      <c r="P152" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q152" s="2" t="n">
+        <v>11.200599670410156</v>
+      </c>
+      <c r="R152" s="2" t="n">
+        <v>18.52389144897461</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>2023-08-25 04:00:00</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>0.016015393659472466</v>
+      </c>
+      <c r="C153" s="2" t="n">
+        <v>0.08499208092689514</v>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>1.3713451623916626</v>
+      </c>
+      <c r="F153" s="2" t="n">
+        <v>1.3719209432601929</v>
+      </c>
+      <c r="G153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H153" s="2" t="n">
+        <v>3.1314001083374023</v>
+      </c>
+      <c r="I153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J153" s="2" t="n">
+        <v>50.78907775878906</v>
+      </c>
+      <c r="K153" s="2" t="n">
+        <v>-1.3125888109207153</v>
+      </c>
+      <c r="L153" s="2" t="n">
+        <v>1010.0410766601562</v>
+      </c>
+      <c r="M153" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N153" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O153" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P153" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q153" s="2" t="n">
+        <v>12.100201606750488</v>
+      </c>
+      <c r="R153" s="2" t="n">
+        <v>17.449031829833984</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
           <t>2023-08-25 05:00:00</t>
         </is>
       </c>
-      <c r="B78" s="2" t="n">
+      <c r="B154" s="2" t="n">
         <v>0.058225248008966446</v>
       </c>
-      <c r="C78" s="2" t="n">
+      <c r="C154" s="2" t="n">
         <v>0.19701248407363892</v>
       </c>
-      <c r="D78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E78" s="2" t="n">
+      <c r="D154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E154" s="2" t="n">
         <v>1.0434521436691284</v>
       </c>
-      <c r="F78" s="2" t="n">
+      <c r="F154" s="2" t="n">
         <v>1.0502980947494507</v>
       </c>
-      <c r="G78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H78" s="2" t="n">
+      <c r="G154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H154" s="2" t="n">
         <v>2.657100200653076</v>
       </c>
-      <c r="I78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J78" s="2" t="n">
+      <c r="I154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J154" s="2" t="n">
         <v>50.889137268066406</v>
       </c>
-      <c r="K78" s="2" t="n">
+      <c r="K154" s="2" t="n">
         <v>-1.4044400453567505</v>
       </c>
-      <c r="L78" s="2" t="n">
+      <c r="L154" s="2" t="n">
         <v>1009.9976806640625</v>
       </c>
-      <c r="M78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O78" s="2" t="n">
+      <c r="M154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O154" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="P78" s="2" t="n">
+      <c r="P154" s="2" t="n">
         <v>0.4000000059604645</v>
       </c>
-      <c r="Q78" s="2" t="n">
+      <c r="Q154" s="2" t="n">
         <v>0.8999999761581421</v>
       </c>
-      <c r="R78" s="2" t="n">
+      <c r="R154" s="2" t="n">
         <v>15.989015579223633</v>
       </c>
     </row>
